--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\gdp-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A56B848-09EA-4FC4-B05C-A05D2A1208F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DD06E-66EF-4848-B7CB-05299C962FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="437">
   <si>
     <t>gdp</t>
   </si>
@@ -42,42 +42,6 @@
     <t>varname</t>
   </si>
   <si>
-    <t>ffr</t>
-  </si>
-  <si>
-    <t>sofr</t>
-  </si>
-  <si>
-    <t>t10y</t>
-  </si>
-  <si>
-    <t>t30y</t>
-  </si>
-  <si>
-    <t>t05y</t>
-  </si>
-  <si>
-    <t>t02y</t>
-  </si>
-  <si>
-    <t>t01y</t>
-  </si>
-  <si>
-    <t>t06m</t>
-  </si>
-  <si>
-    <t>t03m</t>
-  </si>
-  <si>
-    <t>t01m</t>
-  </si>
-  <si>
-    <t>t20y</t>
-  </si>
-  <si>
-    <t>t07y</t>
-  </si>
-  <si>
     <t>GDPC1</t>
   </si>
   <si>
@@ -93,39 +57,6 @@
     <t>q</t>
   </si>
   <si>
-    <t>DGS10</t>
-  </si>
-  <si>
-    <t>DGS20</t>
-  </si>
-  <si>
-    <t>DGS30</t>
-  </si>
-  <si>
-    <t>DGS5</t>
-  </si>
-  <si>
-    <t>DGS2</t>
-  </si>
-  <si>
-    <t>DGS6MO</t>
-  </si>
-  <si>
-    <t>DGS3MO</t>
-  </si>
-  <si>
-    <t>DGS1MO</t>
-  </si>
-  <si>
-    <t>DGS7</t>
-  </si>
-  <si>
-    <t>EFFR</t>
-  </si>
-  <si>
-    <t>SOFR</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -180,42 +111,6 @@
     <t>VIX</t>
   </si>
   <si>
-    <t>Effective Federal Funds Rate</t>
-  </si>
-  <si>
-    <t>Secured Overnight Financing Rate</t>
-  </si>
-  <si>
-    <t>Treasury Yield 10Y</t>
-  </si>
-  <si>
-    <t>Treasury Yield 30Y</t>
-  </si>
-  <si>
-    <t>Treasury Yield 20Y</t>
-  </si>
-  <si>
-    <t>Treasury Yield 5Y</t>
-  </si>
-  <si>
-    <t>Treasury Yield 2Y</t>
-  </si>
-  <si>
-    <t>Treasury Yield 7Y</t>
-  </si>
-  <si>
-    <t>Treasury Yield 1Y</t>
-  </si>
-  <si>
-    <t>Treasury Yield 6M</t>
-  </si>
-  <si>
-    <t>Treasury Yield 3M</t>
-  </si>
-  <si>
-    <t>Treasury Yield 1M</t>
-  </si>
-  <si>
     <t>Vehicle Sales</t>
   </si>
   <si>
@@ -867,42 +762,15 @@
     <t>d</t>
   </si>
   <si>
-    <t>mort15y</t>
-  </si>
-  <si>
-    <t>mort30y</t>
-  </si>
-  <si>
     <t>cpi</t>
   </si>
   <si>
-    <t>Mortgage 15-Year</t>
-  </si>
-  <si>
-    <t>Mortgage 30-Year</t>
-  </si>
-  <si>
-    <t>5/1-Year Mortgage Rate</t>
-  </si>
-  <si>
     <t>CPI-U</t>
   </si>
   <si>
-    <t>MORTGAGE15US</t>
-  </si>
-  <si>
-    <t>MORTGAGE30US</t>
-  </si>
-  <si>
-    <t>MORTGAGE5US</t>
-  </si>
-  <si>
     <t>CPIAUCSL</t>
   </si>
   <si>
-    <t>mort5y</t>
-  </si>
-  <si>
     <t>inf</t>
   </si>
   <si>
@@ -913,33 +781,6 @@
   </si>
   <si>
     <t>pchg</t>
-  </si>
-  <si>
-    <t>tdns1</t>
-  </si>
-  <si>
-    <t>tdns2</t>
-  </si>
-  <si>
-    <t>tdns3</t>
-  </si>
-  <si>
-    <t>Treasury-FFR Spread Level (10-Year Level)</t>
-  </si>
-  <si>
-    <t>Treasury-FFR Spread Slope (Negative of 10Y-3M Spread)</t>
-  </si>
-  <si>
-    <t>Treasury-FFR Spread Curvature</t>
-  </si>
-  <si>
-    <t>mort15yt10yspread</t>
-  </si>
-  <si>
-    <t>Mortgage 15Y - Treasury 10Y Spread</t>
-  </si>
-  <si>
-    <t>DGS1</t>
   </si>
   <si>
     <t>Personal Consumption</t>
@@ -1324,12 +1165,6 @@
     <t>Agricultural Commodities (DBA)</t>
   </si>
   <si>
-    <t>mort30yt30yspread</t>
-  </si>
-  <si>
-    <t>Mortgage 30Y - Treasury 30Y Spread</t>
-  </si>
-  <si>
     <t>bankre</t>
   </si>
   <si>
@@ -1409,9 +1244,6 @@
   </si>
   <si>
     <t>Stocks_and_Commodities</t>
-  </si>
-  <si>
-    <t>Benchmark_Rates</t>
   </si>
   <si>
     <t>Consumer_Wealth</t>
@@ -1594,6 +1426,160 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBF9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1965,160 +1951,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7FBF9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2144,29 +1976,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:T108" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T108" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:T88" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:T88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="17"/>
-    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="16"/>
-    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="15"/>
-    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="3"/>
-    <tableColumn id="29" xr3:uid="{76399FAE-BA60-4EB8-A76D-B35AF5C448A3}" name="initial_forecast" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{8D11F2D0-2DDA-4833-97A3-0AE2613B5941}" name="core_structural" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{5C5BF075-E0AE-47B3-8E6C-DA1E78BAA23F}" name="core_endog_type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="39"/>
+    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="37"/>
+    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="25"/>
+    <tableColumn id="29" xr3:uid="{76399FAE-BA60-4EB8-A76D-B35AF5C448A3}" name="initial_forecast" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{8D11F2D0-2DDA-4833-97A3-0AE2613B5941}" name="core_structural" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{5C5BF075-E0AE-47B3-8E6C-DA1E78BAA23F}" name="core_endog_type" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2487,10 +2319,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,61 +2351,61 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="U1" s="3"/>
       <c r="W1" s="3"/>
@@ -2583,69 +2415,69 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U2" s="3"/>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -2657,54 +2489,54 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U3" s="3"/>
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -2716,54 +2548,54 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U4" s="3"/>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -2775,54 +2607,54 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U5" s="3"/>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -2834,57 +2666,57 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -2896,57 +2728,57 @@
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U7" s="3"/>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -2958,57 +2790,57 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U8" s="3"/>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -3020,57 +2852,57 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U9" s="3"/>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -3082,54 +2914,54 @@
         <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U10" s="3"/>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -3141,57 +2973,57 @@
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U11" s="3"/>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -3203,57 +3035,57 @@
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U12" s="3"/>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -3265,57 +3097,57 @@
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U13" s="3"/>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -3327,57 +3159,57 @@
         <v>13</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U14" s="3"/>
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -3389,54 +3221,54 @@
         <v>14</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U15" s="3"/>
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -3448,57 +3280,57 @@
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U16" s="3"/>
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -3510,57 +3342,57 @@
         <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U17" s="3"/>
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -3572,57 +3404,57 @@
         <v>17</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U18" s="3"/>
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -3634,57 +3466,57 @@
         <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U19" s="3"/>
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -3696,57 +3528,57 @@
         <v>19</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U20" s="3"/>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -3758,57 +3590,57 @@
         <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U21" s="3"/>
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -3820,57 +3652,57 @@
         <v>21</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U22" s="3"/>
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
@@ -3882,57 +3714,57 @@
         <v>22</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U23" s="3"/>
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -3944,54 +3776,54 @@
         <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U24" s="3"/>
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
@@ -4003,54 +3835,54 @@
         <v>24</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U25" s="3"/>
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
@@ -4062,57 +3894,57 @@
         <v>25</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U26" s="3"/>
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -4124,57 +3956,57 @@
         <v>26</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U27" s="3"/>
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D28" s="4">
         <v>3</v>
@@ -4186,57 +4018,57 @@
         <v>27</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U28" s="3"/>
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
@@ -4248,57 +4080,57 @@
         <v>28</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U29" s="3"/>
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
@@ -4310,38 +4142,38 @@
         <v>29</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="3"/>
@@ -4349,13 +4181,13 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
@@ -4367,38 +4199,38 @@
         <v>30</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="3"/>
@@ -4406,13 +4238,13 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -4424,54 +4256,54 @@
         <v>31</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U32" s="3"/>
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
@@ -4483,57 +4315,57 @@
         <v>32</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U33" s="3"/>
       <c r="W33" s="3"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D34" s="4">
         <v>3</v>
@@ -4545,57 +4377,57 @@
         <v>33</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="I34" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U34" s="3"/>
       <c r="W34" s="3"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -4607,54 +4439,54 @@
         <v>34</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U35" s="3"/>
       <c r="W35" s="3"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D36" s="4">
         <v>3</v>
@@ -4666,57 +4498,57 @@
         <v>35</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U36" s="3"/>
       <c r="W36" s="3"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D37" s="4">
         <v>3</v>
@@ -4728,57 +4560,57 @@
         <v>36</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U37" s="3"/>
       <c r="W37" s="3"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -4790,54 +4622,54 @@
         <v>37</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U38" s="3"/>
       <c r="W38" s="3"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D39" s="4">
         <v>3</v>
@@ -4849,57 +4681,57 @@
         <v>38</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U39" s="3"/>
       <c r="W39" s="3"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D40" s="4">
         <v>3</v>
@@ -4911,90 +4743,90 @@
         <v>39</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U40" s="3"/>
       <c r="W40" s="3"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P41" s="5">
         <v>1</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="3"/>
@@ -5002,46 +4834,46 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P42" s="5">
         <v>0</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="3"/>
@@ -5049,46 +4881,46 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P43" s="5">
         <v>0</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="3"/>
@@ -5096,46 +4928,46 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P44" s="5">
         <v>0</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T44" s="5"/>
       <c r="U44" s="3"/>
@@ -5143,61 +4975,61 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P45" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R45" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P45" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="S45" s="5" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="3"/>
@@ -5205,13 +5037,13 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -5223,57 +5055,57 @@
         <v>2</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P46" s="5">
         <v>0</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U46" s="3"/>
       <c r="W46" s="3"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -5285,56 +5117,56 @@
         <v>3</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U47" s="3"/>
       <c r="W47" s="3"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
@@ -5346,56 +5178,56 @@
         <v>4</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U48" s="3"/>
       <c r="W48" s="3"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
@@ -5407,56 +5239,56 @@
         <v>5</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P49" s="5">
         <v>1</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U49" s="3"/>
       <c r="W49" s="3"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -5468,90 +5300,90 @@
         <v>6</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P50" s="5">
         <v>0</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R50" s="5"/>
       <c r="S50" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U50" s="3"/>
       <c r="W50" s="3"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P51" s="5">
         <v>1</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T51" s="5"/>
       <c r="U51" s="3"/>
@@ -5559,46 +5391,46 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="M52" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P52" s="5">
         <v>1</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T52" s="5"/>
       <c r="U52" s="3"/>
@@ -5606,13 +5438,13 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -5624,56 +5456,56 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P53" s="5">
         <v>1</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T53" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U53" s="3"/>
       <c r="W53" s="3"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="D54" s="4">
         <v>3</v>
@@ -5685,56 +5517,56 @@
         <v>2</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P54" s="5">
         <v>0</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U54" s="3"/>
       <c r="W54" s="3"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="D55" s="4">
         <v>3</v>
@@ -5746,56 +5578,56 @@
         <v>3</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P55" s="5">
         <v>1</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U55" s="3"/>
       <c r="W55" s="3"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="D56" s="4">
         <v>3</v>
@@ -5807,37 +5639,37 @@
         <v>4</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P56" s="5">
         <v>1</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
@@ -5847,13 +5679,13 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -5865,57 +5697,57 @@
         <v>5</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P57" s="5">
         <v>1</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R57" s="5"/>
       <c r="S57" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U57" s="3"/>
       <c r="W57" s="3"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -5927,56 +5759,56 @@
         <v>5</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P58" s="5">
         <v>0</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U58" s="3"/>
       <c r="W58" s="3"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="D59" s="4">
         <v>2</v>
@@ -5988,56 +5820,56 @@
         <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P59" s="5">
         <v>1</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U59" s="3"/>
       <c r="W59" s="3"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -6049,56 +5881,56 @@
         <v>2</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P60" s="5">
         <v>0</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U60" s="3"/>
       <c r="W60" s="3"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -6110,89 +5942,89 @@
         <v>3</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P61" s="5">
         <v>1</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T61" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U61" s="3"/>
       <c r="W61" s="3"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P62" s="5">
         <v>0</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T62" s="5"/>
       <c r="U62" s="3"/>
@@ -6200,74 +6032,74 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="K63" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P63" s="5">
         <v>1</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T63" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U63" s="3"/>
       <c r="W63" s="3"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -6279,89 +6111,89 @@
         <v>2</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P64" s="5">
         <v>1</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="U64" s="3"/>
       <c r="W64" s="3"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P65" s="5">
         <v>1</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T65" s="5"/>
       <c r="U65" s="3"/>
@@ -6369,46 +6201,46 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P66" s="5">
         <v>1</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T66" s="5"/>
       <c r="U66" s="3"/>
@@ -6416,46 +6248,46 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P67" s="5">
         <v>1</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T67" s="5"/>
       <c r="U67" s="3"/>
@@ -6463,47 +6295,47 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P68" s="5">
         <v>1</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T68" s="5"/>
       <c r="U68" s="3"/>
@@ -6511,46 +6343,46 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P69" s="5">
         <v>1</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T69" s="5"/>
       <c r="U69" s="3"/>
@@ -6558,13 +6390,13 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -6576,54 +6408,54 @@
         <v>4</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P70" s="5"/>
       <c r="Q70" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U70" s="3"/>
       <c r="W70" s="3"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -6635,54 +6467,54 @@
         <v>5</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P71" s="5"/>
       <c r="Q71" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T71" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U71" s="3"/>
       <c r="W71" s="3"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -6694,87 +6526,87 @@
         <v>6</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H72" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="T72" s="5" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="U72" s="3"/>
       <c r="W72" s="3"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P73" s="5">
         <v>1</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T73" s="5"/>
       <c r="U73" s="3"/>
@@ -6782,46 +6614,46 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P74" s="5">
         <v>1</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T74" s="5"/>
       <c r="U74" s="3"/>
@@ -6829,46 +6661,46 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P75" s="5">
         <v>1</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T75" s="5"/>
       <c r="U75" s="3"/>
@@ -6876,46 +6708,46 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P76" s="5">
         <v>1</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T76" s="5"/>
       <c r="U76" s="3"/>
@@ -6923,46 +6755,46 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P77" s="5">
         <v>1</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="T77" s="5"/>
       <c r="U77" s="3"/>
@@ -6970,61 +6802,46 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>440</v>
+        <v>46</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P78" s="5">
         <v>1</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R78" s="4" t="s">
-        <v>308</v>
+        <v>97</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="T78" s="5"/>
       <c r="U78" s="3"/>
@@ -7032,13 +6849,13 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -7047,46 +6864,44 @@
         <v>1</v>
       </c>
       <c r="F79" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H79" s="4"/>
       <c r="I79" s="4" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P79" s="5">
         <v>0</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="T79" s="5"/>
       <c r="U79" s="3"/>
@@ -7094,13 +6909,13 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -7109,46 +6924,46 @@
         <v>1</v>
       </c>
       <c r="F80" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="P80" s="5">
         <v>1</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="T80" s="5"/>
       <c r="U80" s="3"/>
@@ -7156,137 +6971,135 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P81" s="5">
         <v>0</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R81" s="4" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T81" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="T81" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="U81" s="3"/>
       <c r="W81" s="3"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="4">
         <v>1</v>
       </c>
       <c r="F82" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>22</v>
+        <v>364</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="P82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R82" s="4" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T82" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="T82" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="U82" s="3"/>
       <c r="W82" s="3"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>54</v>
+        <v>370</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="D83" s="4">
         <v>2</v>
@@ -7295,108 +7108,92 @@
         <v>1</v>
       </c>
       <c r="F83" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>23</v>
+        <v>366</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="P83" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R83" s="4" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="S83" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T83" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="T83" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="U83" s="3"/>
       <c r="W83" s="3"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>367</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D84" s="4">
-        <v>1</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1</v>
-      </c>
-      <c r="F84" s="4">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="P84" s="5">
         <v>1</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R84" s="4" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="S84" s="5" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="T84" s="5"/>
       <c r="U84" s="3"/>
@@ -7404,61 +7201,46 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D85" s="4">
-        <v>2</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="F85" s="4">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P85" s="5">
         <v>0</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R85" s="4" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="S85" s="5" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="T85" s="5"/>
       <c r="U85" s="3"/>
@@ -7466,61 +7248,61 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="D86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
       </c>
       <c r="F86" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="P86" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="T86" s="5"/>
       <c r="U86" s="3"/>
@@ -7528,61 +7310,61 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="D87" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="P87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="T87" s="5"/>
       <c r="U87" s="3"/>
@@ -7590,1241 +7372,134 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D88" s="4">
-        <v>1</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1</v>
-      </c>
-      <c r="F88" s="4">
-        <v>11</v>
+        <v>407</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P88" s="5">
         <v>0</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R88" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="R88" s="5"/>
       <c r="S88" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T88" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="U88" s="3"/>
       <c r="W88" s="3"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D89" s="4">
-        <v>2</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="4">
-        <v>9</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P89" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R89" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S89" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T89" s="5"/>
-      <c r="U89" s="3"/>
-      <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-      <c r="F90" s="4">
-        <v>13</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P90" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R90" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S90" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T90" s="5"/>
-      <c r="U90" s="3"/>
-      <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="F91" s="4">
-        <v>14</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P91" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R91" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S91" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T91" s="5"/>
-      <c r="U91" s="3"/>
-      <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O92" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P92" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S92" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T92" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="U92" s="3"/>
-      <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P93" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S93" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="T93" s="5"/>
-      <c r="U93" s="3"/>
-      <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" s="4">
-        <v>1</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R94" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S94" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T94" s="5"/>
-      <c r="U94" s="3"/>
-      <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D95" s="4">
-        <v>1</v>
-      </c>
-      <c r="E95" s="4">
-        <v>1</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P95" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R95" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S95" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T95" s="5"/>
-      <c r="U95" s="3"/>
-      <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D96" s="4">
-        <v>2</v>
-      </c>
-      <c r="E96" s="4">
-        <v>1</v>
-      </c>
-      <c r="F96" s="4">
-        <v>2</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P96" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S96" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T96" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="U96" s="3"/>
-      <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D97" s="4">
-        <v>2</v>
-      </c>
-      <c r="E97" s="4">
-        <v>1</v>
-      </c>
-      <c r="F97" s="4">
-        <v>3</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N97" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P97" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S97" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T97" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="U97" s="3"/>
-      <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D98" s="4">
-        <v>2</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1</v>
-      </c>
-      <c r="F98" s="4">
-        <v>4</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P98" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S98" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T98" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="U98" s="3"/>
-      <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N99" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O99" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P99" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S99" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="T99" s="5"/>
-      <c r="U99" s="3"/>
-      <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O100" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P100" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R100" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S100" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T100" s="5"/>
-      <c r="U100" s="3"/>
-      <c r="W100" s="3"/>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M101" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N101" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O101" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P101" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R101" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S101" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T101" s="5"/>
-      <c r="U101" s="3"/>
-      <c r="W101" s="3"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P102" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R102" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S102" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T102" s="5"/>
-      <c r="U102" s="3"/>
-      <c r="W102" s="3"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N103" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O103" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P103" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="R103" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S103" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="T103" s="5"/>
-      <c r="U103" s="3"/>
-      <c r="W103" s="3"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="N104" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O104" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P104" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="R104" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S104" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="T104" s="5"/>
-      <c r="U104" s="3"/>
-      <c r="W104" s="3"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M105" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N105" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O105" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P105" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S105" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="T105" s="5"/>
-      <c r="U105" s="3"/>
-      <c r="W105" s="3"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1</v>
-      </c>
-      <c r="E106" s="4">
-        <v>1</v>
-      </c>
-      <c r="F106" s="4">
-        <v>1</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N106" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O106" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P106" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R106" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S106" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T106" s="5"/>
-      <c r="U106" s="3"/>
-      <c r="W106" s="3"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1</v>
-      </c>
-      <c r="F107" s="4">
-        <v>1</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M107" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N107" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P107" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R107" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="S107" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="T107" s="5"/>
-      <c r="U107" s="3"/>
-      <c r="W107" s="3"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M108" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="N108" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O108" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="P108" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T108" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="U108" s="3"/>
-      <c r="W108" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K108">
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+  <conditionalFormatting sqref="K1:K88">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S109:S9983 P108">
-    <cfRule type="expression" dxfId="39" priority="18">
+  <conditionalFormatting sqref="S89:S9963 P88">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H108">
-    <cfRule type="expression" dxfId="38" priority="17">
+  <conditionalFormatting sqref="H2:H88">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P108">
-    <cfRule type="expression" dxfId="37" priority="16">
+  <conditionalFormatting sqref="P2:P88">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S108">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+  <conditionalFormatting sqref="S2:S88">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"core.exog.p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"post.endog"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"core.endog"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"core.exog"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q108">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+  <conditionalFormatting sqref="Q2:Q88">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"dfm.q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"dfm.m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T108">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+  <conditionalFormatting sqref="T2:T88">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"identity.ll"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"estimated"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($S2 &lt;&gt; "core.endog",$S2 &lt;&gt; "core.exog.p")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R108">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+  <conditionalFormatting sqref="R2:R88">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8858,36 +7533,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>53</v>
@@ -8895,16 +7570,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>54</v>
@@ -8912,16 +7587,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>199</v>
@@ -8929,16 +7604,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>27</v>
@@ -8946,16 +7621,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>97</v>
@@ -8963,16 +7638,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>95</v>
@@ -8980,16 +7655,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -8997,16 +7672,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>229</v>
@@ -9014,16 +7689,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>93</v>
@@ -9031,16 +7706,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -9048,16 +7723,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>192</v>
@@ -9065,36 +7740,36 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>465</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>212</v>
@@ -9102,16 +7777,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>22</v>
@@ -9119,33 +7794,33 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -9153,16 +7828,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="C18" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>92</v>
@@ -9170,36 +7845,36 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>341</v>
       </c>
       <c r="F19" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>205</v>
@@ -9207,16 +7882,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E21">
         <v>231</v>
@@ -9224,76 +7899,76 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="B22" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E22">
         <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="B23" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E23">
         <v>374</v>
       </c>
       <c r="F23" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="B24" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E24">
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <v>219</v>
@@ -9301,13 +7976,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E26">
         <v>427</v>
@@ -9315,16 +7990,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E27">
         <v>378</v>
@@ -9332,16 +8007,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="B28" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="C28" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>445</v>
@@ -9349,16 +8024,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="C29" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>17</v>
@@ -9366,30 +8041,30 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="C30" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="C31" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <v>190</v>
@@ -9397,16 +8072,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -9414,30 +8089,30 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="B33" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="C33" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <v>441</v>
@@ -9445,16 +8120,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="B35" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="C35" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E35">
         <v>503</v>
@@ -9462,13 +8137,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="B36" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="C36" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="E36">
         <v>25</v>

--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DD06E-66EF-4848-B7CB-05299C962FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D374F7-9875-4846-B3FD-FFE201F658B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="427">
   <si>
     <t>gdp</t>
   </si>
@@ -795,25 +795,10 @@
     <t>nc_dfm_input</t>
   </si>
   <si>
-    <t>initial_forecast</t>
-  </si>
-  <si>
     <t>nc_method</t>
   </si>
   <si>
-    <t>qual</t>
-  </si>
-  <si>
     <t>disporder</t>
-  </si>
-  <si>
-    <t>core_structural</t>
-  </si>
-  <si>
-    <t>core.endog</t>
-  </si>
-  <si>
-    <t>core.exog</t>
   </si>
   <si>
     <t>BEA.GDP</t>
@@ -1187,21 +1172,6 @@
   </si>
   <si>
     <t>Bank Real Estate Loans</t>
-  </si>
-  <si>
-    <t>post.endog</t>
-  </si>
-  <si>
-    <t>core_endog_type</t>
-  </si>
-  <si>
-    <t>identity.ll</t>
-  </si>
-  <si>
-    <t>estimated</t>
-  </si>
-  <si>
-    <t>core.exog.p</t>
   </si>
   <si>
     <t>diff1</t>
@@ -1425,214 +1395,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7FBF9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1951,6 +1714,83 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1976,29 +1816,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:T88" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:T88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="39"/>
-    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="38"/>
-    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="37"/>
-    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="25"/>
-    <tableColumn id="29" xr3:uid="{76399FAE-BA60-4EB8-A76D-B35AF5C448A3}" name="initial_forecast" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{8D11F2D0-2DDA-4833-97A3-0AE2613B5941}" name="core_structural" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{5C5BF075-E0AE-47B3-8E6C-DA1E78BAA23F}" name="core_endog_type" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:Q88" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="12"/>
+    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2319,16 +2156,16 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:W88"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="S80" sqref="S80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="4" customWidth="1"/>
     <col min="4" max="6" width="9.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="4" customWidth="1"/>
@@ -2338,15 +2175,14 @@
     <col min="11" max="11" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6.85546875" style="4" customWidth="1"/>
     <col min="15" max="16" width="7.5703125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="9.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="4"/>
-    <col min="20" max="21" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2357,13 +2193,13 @@
         <v>196</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>98</v>
@@ -2372,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>37</v>
@@ -2396,21 +2232,12 @@
         <v>252</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="U1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2436,10 +2263,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>6</v>
@@ -2460,16 +2287,10 @@
       <c r="Q2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -2495,10 +2316,10 @@
         <v>51</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>6</v>
@@ -2519,16 +2340,10 @@
       <c r="Q3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2554,10 +2369,10 @@
         <v>52</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>6</v>
@@ -2578,16 +2393,10 @@
       <c r="Q4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2613,10 +2422,10 @@
         <v>53</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>6</v>
@@ -2637,16 +2446,10 @@
       <c r="Q5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -2672,10 +2475,10 @@
         <v>106</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>6</v>
@@ -2696,19 +2499,10 @@
       <c r="Q6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>164</v>
       </c>
@@ -2734,10 +2528,10 @@
         <v>107</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>6</v>
@@ -2758,19 +2552,10 @@
       <c r="Q7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>163</v>
       </c>
@@ -2796,10 +2581,10 @@
         <v>108</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>6</v>
@@ -2820,19 +2605,10 @@
       <c r="Q8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>162</v>
       </c>
@@ -2858,10 +2634,10 @@
         <v>109</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>6</v>
@@ -2882,19 +2658,10 @@
       <c r="Q9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -2920,10 +2687,10 @@
         <v>54</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
@@ -2944,16 +2711,10 @@
       <c r="Q10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S10" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U10" s="3"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>110</v>
       </c>
@@ -2979,10 +2740,10 @@
         <v>55</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>6</v>
@@ -3003,19 +2764,10 @@
       <c r="Q11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U11" s="3"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
@@ -3041,10 +2793,10 @@
         <v>114</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>6</v>
@@ -3065,19 +2817,10 @@
       <c r="Q12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U12" s="3"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
@@ -3103,10 +2846,10 @@
         <v>115</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>6</v>
@@ -3127,19 +2870,10 @@
       <c r="Q13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U13" s="3"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -3165,10 +2899,10 @@
         <v>116</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>6</v>
@@ -3189,19 +2923,10 @@
       <c r="Q14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U14" s="3"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -3227,10 +2952,10 @@
         <v>56</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>6</v>
@@ -3251,16 +2976,10 @@
       <c r="Q15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U15" s="3"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -3286,10 +3005,10 @@
         <v>57</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>6</v>
@@ -3310,19 +3029,10 @@
       <c r="Q16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -3348,10 +3058,10 @@
         <v>58</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>6</v>
@@ -3372,19 +3082,10 @@
       <c r="Q17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U17" s="3"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>119</v>
       </c>
@@ -3410,10 +3111,10 @@
         <v>59</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>6</v>
@@ -3434,19 +3135,10 @@
       <c r="Q18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,10 +3164,10 @@
         <v>60</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>6</v>
@@ -3496,19 +3188,10 @@
       <c r="Q19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U19" s="3"/>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -3534,10 +3217,10 @@
         <v>61</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>6</v>
@@ -3558,19 +3241,10 @@
       <c r="Q20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -3596,10 +3270,10 @@
         <v>62</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>6</v>
@@ -3620,19 +3294,10 @@
       <c r="Q21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U21" s="3"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -3658,10 +3323,10 @@
         <v>63</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>6</v>
@@ -3682,19 +3347,10 @@
       <c r="Q22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U22" s="3"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -3720,10 +3376,10 @@
         <v>64</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>6</v>
@@ -3744,19 +3400,10 @@
       <c r="Q23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U23" s="3"/>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -3782,10 +3429,10 @@
         <v>47</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>6</v>
@@ -3806,16 +3453,10 @@
       <c r="Q24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S24" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U24" s="3"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>118</v>
       </c>
@@ -3841,10 +3482,10 @@
         <v>65</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>6</v>
@@ -3865,16 +3506,10 @@
       <c r="Q25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>120</v>
       </c>
@@ -3900,10 +3535,10 @@
         <v>126</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>6</v>
@@ -3924,19 +3559,10 @@
       <c r="Q26" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U26" s="3"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -3962,10 +3588,10 @@
         <v>127</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>6</v>
@@ -3986,19 +3612,10 @@
       <c r="Q27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U27" s="3"/>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
@@ -4024,10 +3641,10 @@
         <v>128</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>6</v>
@@ -4048,19 +3665,10 @@
       <c r="Q28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U28" s="3"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -4086,10 +3694,10 @@
         <v>66</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>6</v>
@@ -4110,19 +3718,10 @@
       <c r="Q29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U29" s="3"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
@@ -4148,10 +3747,10 @@
         <v>67</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>6</v>
@@ -4172,14 +3771,10 @@
       <c r="Q30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="T30" s="5"/>
-      <c r="U30" s="3"/>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -4205,10 +3800,10 @@
         <v>68</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>6</v>
@@ -4229,14 +3824,10 @@
       <c r="Q31" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S31" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="3"/>
-      <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -4262,10 +3853,10 @@
         <v>104</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>6</v>
@@ -4286,16 +3877,10 @@
       <c r="Q32" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S32" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U32" s="3"/>
-      <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -4321,10 +3906,10 @@
         <v>133</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>6</v>
@@ -4345,19 +3930,10 @@
       <c r="Q33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U33" s="3"/>
-      <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -4383,10 +3959,10 @@
         <v>134</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>6</v>
@@ -4407,19 +3983,10 @@
       <c r="Q34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R34" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U34" s="3"/>
-      <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -4445,10 +4012,10 @@
         <v>103</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>6</v>
@@ -4469,16 +4036,10 @@
       <c r="Q35" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S35" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U35" s="3"/>
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>131</v>
       </c>
@@ -4504,10 +4065,10 @@
         <v>135</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>6</v>
@@ -4528,19 +4089,10 @@
       <c r="Q36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U36" s="3"/>
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>132</v>
       </c>
@@ -4566,10 +4118,10 @@
         <v>136</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>6</v>
@@ -4590,19 +4142,10 @@
       <c r="Q37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U37" s="3"/>
-      <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
@@ -4628,10 +4171,10 @@
         <v>69</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>6</v>
@@ -4652,16 +4195,10 @@
       <c r="Q38" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S38" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U38" s="3"/>
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R38" s="3"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -4687,10 +4224,10 @@
         <v>70</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>6</v>
@@ -4711,19 +4248,10 @@
       <c r="Q39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U39" s="3"/>
-      <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>95</v>
       </c>
@@ -4749,10 +4277,10 @@
         <v>71</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>6</v>
@@ -4773,19 +4301,10 @@
       <c r="Q40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U40" s="3"/>
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
@@ -4799,10 +4318,10 @@
         <v>45</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>7</v>
@@ -4825,14 +4344,10 @@
       <c r="Q41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S41" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T41" s="5"/>
-      <c r="U41" s="3"/>
-      <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R41" s="3"/>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>139</v>
       </c>
@@ -4846,10 +4361,10 @@
         <v>140</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>7</v>
@@ -4872,14 +4387,10 @@
       <c r="Q42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S42" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T42" s="5"/>
-      <c r="U42" s="3"/>
-      <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R42" s="3"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>144</v>
       </c>
@@ -4893,10 +4404,10 @@
         <v>150</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>7</v>
@@ -4919,14 +4430,10 @@
       <c r="Q43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S43" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T43" s="5"/>
-      <c r="U43" s="3"/>
-      <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R43" s="3"/>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>146</v>
       </c>
@@ -4940,10 +4447,10 @@
         <v>149</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>7</v>
@@ -4966,19 +4473,15 @@
       <c r="Q44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S44" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T44" s="5"/>
-      <c r="U44" s="3"/>
-      <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R44" s="3"/>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>220</v>
@@ -4999,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>41</v>
@@ -5025,22 +4528,15 @@
       <c r="Q45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R45" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="T45" s="5"/>
-      <c r="U45" s="3"/>
-      <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R45" s="3"/>
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>220</v>
@@ -5058,10 +4554,10 @@
         <v>99</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>41</v>
@@ -5087,17 +4583,10 @@
       <c r="Q46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U46" s="3"/>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R46" s="3"/>
+      <c r="T46" s="3"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>208</v>
       </c>
@@ -5123,7 +4612,7 @@
         <v>210</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>222</v>
@@ -5149,16 +4638,10 @@
       <c r="Q47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S47" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U47" s="3"/>
-      <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R47" s="3"/>
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>218</v>
       </c>
@@ -5184,7 +4667,7 @@
         <v>221</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>222</v>
@@ -5210,16 +4693,10 @@
       <c r="Q48" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S48" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U48" s="3"/>
-      <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>225</v>
       </c>
@@ -5245,7 +4722,7 @@
         <v>227</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>222</v>
@@ -5271,21 +4748,15 @@
       <c r="Q49" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S49" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U49" s="3"/>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R49" s="3"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>220</v>
@@ -5303,10 +4774,10 @@
         <v>99</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>41</v>
@@ -5332,17 +4803,10 @@
       <c r="Q50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U50" s="3"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R50" s="3"/>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>223</v>
       </c>
@@ -5356,10 +4820,10 @@
         <v>224</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>7</v>
@@ -5382,14 +4846,10 @@
       <c r="Q51" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S51" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T51" s="5"/>
-      <c r="U51" s="3"/>
-      <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>215</v>
       </c>
@@ -5403,10 +4863,10 @@
         <v>217</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>7</v>
@@ -5429,14 +4889,10 @@
       <c r="Q52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T52" s="5"/>
-      <c r="U52" s="3"/>
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R52" s="3"/>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -5444,7 +4900,7 @@
         <v>25</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -5462,10 +4918,10 @@
         <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>7</v>
@@ -5488,16 +4944,10 @@
       <c r="Q53" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S53" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U53" s="3"/>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>211</v>
       </c>
@@ -5505,7 +4955,7 @@
         <v>212</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D54" s="4">
         <v>3</v>
@@ -5523,7 +4973,7 @@
         <v>214</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>222</v>
@@ -5549,24 +4999,18 @@
       <c r="Q54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S54" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T54" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U54" s="3"/>
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R54" s="3"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D55" s="4">
         <v>3</v>
@@ -5584,7 +5028,7 @@
         <v>230</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>222</v>
@@ -5610,24 +5054,18 @@
       <c r="Q55" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S55" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T55" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U55" s="3"/>
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D56" s="4">
         <v>3</v>
@@ -5642,10 +5080,10 @@
         <v>99</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>222</v>
@@ -5671,21 +5109,18 @@
       <c r="Q56" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="3"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -5700,13 +5135,13 @@
         <v>99</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>7</v>
@@ -5715,7 +5150,7 @@
         <v>250</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>4</v>
@@ -5729,17 +5164,10 @@
       <c r="Q57" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T57" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U57" s="3"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>231</v>
       </c>
@@ -5747,7 +5175,7 @@
         <v>232</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -5765,10 +5193,10 @@
         <v>233</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>241</v>
@@ -5791,24 +5219,18 @@
       <c r="Q58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S58" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T58" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U58" s="3"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R58" s="3"/>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="D59" s="4">
         <v>2</v>
@@ -5823,13 +5245,13 @@
         <v>99</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>247</v>
@@ -5852,24 +5274,18 @@
       <c r="Q59" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S59" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T59" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U59" s="3"/>
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R59" s="3"/>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -5884,13 +5300,13 @@
         <v>99</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>247</v>
@@ -5913,24 +5329,18 @@
       <c r="Q60" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S60" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T60" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U60" s="3"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R60" s="3"/>
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -5948,10 +5358,10 @@
         <v>16</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>247</v>
@@ -5974,16 +5384,10 @@
       <c r="Q61" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S61" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T61" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U61" s="3"/>
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R61" s="3"/>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -5994,10 +5398,10 @@
         <v>99</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>41</v>
@@ -6023,14 +5427,10 @@
       <c r="Q62" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S62" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T62" s="5"/>
-      <c r="U62" s="3"/>
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R62" s="3"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -6038,7 +5438,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -6053,10 +5453,10 @@
         <v>166</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>41</v>
@@ -6068,7 +5468,7 @@
         <v>250</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>4</v>
@@ -6082,16 +5482,10 @@
       <c r="Q63" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S63" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T63" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U63" s="3"/>
-      <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R63" s="3"/>
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -6099,7 +5493,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -6114,13 +5508,13 @@
         <v>99</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>7</v>
@@ -6143,16 +5537,10 @@
       <c r="Q64" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S64" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T64" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U64" s="3"/>
-      <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R64" s="3"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -6166,7 +5554,7 @@
         <v>21</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>41</v>
@@ -6192,14 +5580,10 @@
       <c r="Q65" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S65" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T65" s="5"/>
-      <c r="U65" s="3"/>
-      <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
@@ -6213,7 +5597,7 @@
         <v>31</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>41</v>
@@ -6239,14 +5623,10 @@
       <c r="Q66" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S66" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T66" s="5"/>
-      <c r="U66" s="3"/>
-      <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R66" s="3"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>151</v>
       </c>
@@ -6260,7 +5640,7 @@
         <v>33</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>41</v>
@@ -6286,31 +5666,27 @@
       <c r="Q67" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S67" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T67" s="5"/>
-      <c r="U67" s="3"/>
-      <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>7</v>
@@ -6333,15 +5709,10 @@
       <c r="Q68" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T68" s="5"/>
-      <c r="U68" s="3"/>
-      <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R68" s="3"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>42</v>
       </c>
@@ -6355,10 +5726,10 @@
         <v>43</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>7</v>
@@ -6381,14 +5752,10 @@
       <c r="Q69" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S69" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T69" s="5"/>
-      <c r="U69" s="3"/>
-      <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
@@ -6396,7 +5763,7 @@
         <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -6414,7 +5781,7 @@
         <v>158</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>38</v>
@@ -6438,16 +5805,10 @@
       <c r="Q70" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S70" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T70" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U70" s="3"/>
-      <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R70" s="3"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>154</v>
       </c>
@@ -6455,7 +5816,7 @@
         <v>155</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -6473,7 +5834,7 @@
         <v>159</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>38</v>
@@ -6497,16 +5858,10 @@
       <c r="Q71" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S71" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T71" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U71" s="3"/>
-      <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R71" s="3"/>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>156</v>
       </c>
@@ -6514,7 +5869,7 @@
         <v>157</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -6532,7 +5887,7 @@
         <v>160</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>38</v>
@@ -6556,30 +5911,24 @@
       <c r="Q72" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S72" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T72" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U72" s="3"/>
-      <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R72" s="3"/>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>41</v>
@@ -6605,14 +5954,10 @@
       <c r="Q73" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S73" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T73" s="5"/>
-      <c r="U73" s="3"/>
-      <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R73" s="3"/>
+      <c r="T73" s="3"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>203</v>
       </c>
@@ -6626,7 +5971,7 @@
         <v>161</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>41</v>
@@ -6652,14 +5997,10 @@
       <c r="Q74" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S74" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T74" s="5"/>
-      <c r="U74" s="3"/>
-      <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R74" s="3"/>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>204</v>
       </c>
@@ -6673,7 +6014,7 @@
         <v>206</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>41</v>
@@ -6699,14 +6040,10 @@
       <c r="Q75" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S75" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T75" s="5"/>
-      <c r="U75" s="3"/>
-      <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R75" s="3"/>
+      <c r="T75" s="3"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -6720,7 +6057,7 @@
         <v>236</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>38</v>
@@ -6746,14 +6083,10 @@
       <c r="Q76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S76" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T76" s="5"/>
-      <c r="U76" s="3"/>
-      <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R76" s="3"/>
+      <c r="T76" s="3"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -6767,7 +6100,7 @@
         <v>239</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>38</v>
@@ -6793,14 +6126,10 @@
       <c r="Q77" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S77" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T77" s="5"/>
-      <c r="U77" s="3"/>
-      <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R77" s="3"/>
+      <c r="T77" s="3"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -6814,7 +6143,7 @@
         <v>244</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>41</v>
@@ -6840,14 +6169,10 @@
       <c r="Q78" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S78" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="T78" s="5"/>
-      <c r="U78" s="3"/>
-      <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R78" s="3"/>
+      <c r="T78" s="3"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -6871,7 +6196,7 @@
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>38</v>
@@ -6897,17 +6222,10 @@
       <c r="Q79" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R79" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S79" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="T79" s="5"/>
-      <c r="U79" s="3"/>
-      <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R79" s="3"/>
+      <c r="T79" s="3"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -6915,7 +6233,7 @@
         <v>26</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -6933,7 +6251,7 @@
         <v>200</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>41</v>
@@ -6959,17 +6277,10 @@
       <c r="Q80" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R80" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S80" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="T80" s="5"/>
-      <c r="U80" s="3"/>
-      <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R80" s="3"/>
+      <c r="T80" s="3"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>15</v>
       </c>
@@ -6977,7 +6288,7 @@
         <v>24</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D81" s="4">
         <v>2</v>
@@ -6995,7 +6306,7 @@
         <v>201</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>41</v>
@@ -7021,24 +6332,18 @@
       <c r="Q81" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S81" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T81" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U81" s="3"/>
-      <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R81" s="3"/>
+      <c r="T81" s="3"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D82" s="4">
         <v>2</v>
@@ -7053,10 +6358,10 @@
         <v>166</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>41</v>
@@ -7082,24 +6387,18 @@
       <c r="Q82" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S82" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T82" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U82" s="3"/>
-      <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D83" s="4">
         <v>2</v>
@@ -7114,10 +6413,10 @@
         <v>166</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>41</v>
@@ -7143,30 +6442,24 @@
       <c r="Q83" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S83" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T83" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U83" s="3"/>
-      <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R83" s="3"/>
+      <c r="T83" s="3"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>41</v>
@@ -7192,14 +6485,10 @@
       <c r="Q84" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S84" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T84" s="5"/>
-      <c r="U84" s="3"/>
-      <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R84" s="3"/>
+      <c r="T84" s="3"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>137</v>
       </c>
@@ -7213,10 +6502,10 @@
         <v>141</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>7</v>
@@ -7239,14 +6528,10 @@
       <c r="Q85" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S85" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T85" s="5"/>
-      <c r="U85" s="3"/>
-      <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R85" s="3"/>
+      <c r="T85" s="3"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>145</v>
       </c>
@@ -7254,7 +6539,7 @@
         <v>142</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -7272,10 +6557,10 @@
         <v>36</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>7</v>
@@ -7298,17 +6583,10 @@
       <c r="Q86" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R86" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S86" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="T86" s="5"/>
-      <c r="U86" s="3"/>
-      <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R86" s="3"/>
+      <c r="T86" s="3"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -7316,7 +6594,7 @@
         <v>213</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -7334,7 +6612,7 @@
         <v>13</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>38</v>
@@ -7360,34 +6638,27 @@
       <c r="Q87" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R87" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S87" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="T87" s="5"/>
-      <c r="U87" s="3"/>
-      <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R87" s="3"/>
+      <c r="T87" s="3"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>241</v>
@@ -7410,97 +6681,51 @@
       <c r="Q88" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="T88" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="U88" s="3"/>
-      <c r="W88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="T88" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K88">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S89:S9963 P88">
-    <cfRule type="expression" dxfId="17" priority="18">
+  <conditionalFormatting sqref="P88">
+    <cfRule type="expression" dxfId="25" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H88">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="24" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P88">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="23" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S88">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
-      <formula>"core.exog.p"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>"post.endog"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"core.endog"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+  <conditionalFormatting sqref="Q2:Q88">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
-      <formula>"core.exog"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q88">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"none"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"dfm.q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"dfm.m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"calc"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T88">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"identity.ll"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"estimated"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>AND($S2 &lt;&gt; "core.endog",$S2 &lt;&gt; "core.exog.p")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R88">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"calc"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7533,33 +6758,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" t="s">
         <v>263</v>
-      </c>
-      <c r="D1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
         <v>99</v>
@@ -7570,13 +6795,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
         <v>99</v>
@@ -7587,13 +6812,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
         <v>99</v>
@@ -7604,13 +6829,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
@@ -7621,13 +6846,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -7638,13 +6863,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
         <v>99</v>
@@ -7655,13 +6880,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
@@ -7672,13 +6897,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
         <v>99</v>
@@ -7689,13 +6914,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
@@ -7706,13 +6931,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
         <v>99</v>
@@ -7723,13 +6948,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
@@ -7740,13 +6965,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -7755,18 +6980,18 @@
         <v>465</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
         <v>99</v>
@@ -7777,13 +7002,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s">
         <v>99</v>
@@ -7794,7 +7019,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -7806,18 +7031,18 @@
         <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D17" t="s">
         <v>99</v>
@@ -7828,13 +7053,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D18" t="s">
         <v>99</v>
@@ -7845,13 +7070,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
@@ -7860,18 +7085,18 @@
         <v>341</v>
       </c>
       <c r="F19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -7882,13 +7107,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
@@ -7899,13 +7124,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
@@ -7914,18 +7139,18 @@
         <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
         <v>99</v>
@@ -7934,18 +7159,18 @@
         <v>374</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
@@ -7954,18 +7179,18 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B25" t="s">
         <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
@@ -7976,10 +7201,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
@@ -7990,13 +7215,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
@@ -8007,13 +7232,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
@@ -8024,13 +7249,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
@@ -8041,13 +7266,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
@@ -8055,13 +7280,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
@@ -8072,13 +7297,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
@@ -8089,13 +7314,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D33" t="s">
         <v>166</v>
@@ -8103,13 +7328,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B34" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C34" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -8120,13 +7345,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C35" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
@@ -8137,13 +7362,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B36" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C36" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E36">
         <v>25</v>

--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D374F7-9875-4846-B3FD-FFE201F658B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854515F4-D644-49C0-8FF2-97DA2E41A64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="425">
   <si>
     <t>gdp</t>
   </si>
@@ -736,15 +736,6 @@
   </si>
   <si>
     <t>DCOILWTICO</t>
-  </si>
-  <si>
-    <t>baa</t>
-  </si>
-  <si>
-    <t>Baa Corporate Bond Yield</t>
-  </si>
-  <si>
-    <t>DBAA</t>
   </si>
   <si>
     <t>lfpr</t>
@@ -1329,12 +1320,15 @@
   <si>
     <t>$ per hour</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1357,6 +1351,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1378,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1391,11 +1391,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1816,26 +1831,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:Q88" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="12"/>
-    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:R87" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:R87" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="13"/>
+    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2156,10 +2172,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,13 +2209,13 @@
         <v>196</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>98</v>
@@ -2208,7 +2224,7 @@
         <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>37</v>
@@ -2229,12 +2245,14 @@
         <v>199</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="R1" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2242,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>23</v>
@@ -2263,16 +2281,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>3</v>
@@ -2287,7 +2305,7 @@
       <c r="Q2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="6"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2295,7 +2313,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
@@ -2316,16 +2334,16 @@
         <v>51</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>3</v>
@@ -2340,7 +2358,7 @@
       <c r="Q3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="6"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -2369,16 +2387,16 @@
         <v>52</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>3</v>
@@ -2393,7 +2411,7 @@
       <c r="Q4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="6"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2422,16 +2440,16 @@
         <v>53</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>3</v>
@@ -2446,7 +2464,7 @@
       <c r="Q5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="6"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2475,16 +2493,16 @@
         <v>106</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>3</v>
@@ -2499,7 +2517,7 @@
       <c r="Q6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="6"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2528,16 +2546,16 @@
         <v>107</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>3</v>
@@ -2552,7 +2570,7 @@
       <c r="Q7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="6"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2581,16 +2599,16 @@
         <v>108</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>3</v>
@@ -2605,7 +2623,7 @@
       <c r="Q8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="6"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2634,16 +2652,16 @@
         <v>109</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>3</v>
@@ -2658,7 +2676,7 @@
       <c r="Q9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="6"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2687,16 +2705,16 @@
         <v>54</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>3</v>
@@ -2711,7 +2729,7 @@
       <c r="Q10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="6"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2740,16 +2758,16 @@
         <v>55</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>3</v>
@@ -2764,7 +2782,7 @@
       <c r="Q11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="6"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2793,16 +2811,16 @@
         <v>114</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>3</v>
@@ -2817,7 +2835,7 @@
       <c r="Q12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="6"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2846,16 +2864,16 @@
         <v>115</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>3</v>
@@ -2870,7 +2888,7 @@
       <c r="Q13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="6"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2899,16 +2917,16 @@
         <v>116</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>3</v>
@@ -2923,7 +2941,7 @@
       <c r="Q14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="6"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2952,16 +2970,16 @@
         <v>56</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>3</v>
@@ -2976,7 +2994,7 @@
       <c r="Q15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R15" s="3"/>
+      <c r="R15" s="6"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3005,16 +3023,16 @@
         <v>57</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>3</v>
@@ -3029,7 +3047,7 @@
       <c r="Q16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="6"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -3058,16 +3076,16 @@
         <v>58</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>3</v>
@@ -3082,7 +3100,7 @@
       <c r="Q17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="6"/>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3111,16 +3129,16 @@
         <v>59</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>3</v>
@@ -3135,7 +3153,7 @@
       <c r="Q18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="6"/>
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3164,16 +3182,16 @@
         <v>60</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>3</v>
@@ -3188,7 +3206,7 @@
       <c r="Q19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R19" s="3"/>
+      <c r="R19" s="6"/>
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3217,16 +3235,16 @@
         <v>61</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>3</v>
@@ -3241,7 +3259,7 @@
       <c r="Q20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="6"/>
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3270,16 +3288,16 @@
         <v>62</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>3</v>
@@ -3294,7 +3312,7 @@
       <c r="Q21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R21" s="3"/>
+      <c r="R21" s="6"/>
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3323,16 +3341,16 @@
         <v>63</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>3</v>
@@ -3347,7 +3365,7 @@
       <c r="Q22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R22" s="3"/>
+      <c r="R22" s="6"/>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -3376,16 +3394,16 @@
         <v>64</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>3</v>
@@ -3400,7 +3418,7 @@
       <c r="Q23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="3"/>
+      <c r="R23" s="6"/>
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -3429,16 +3447,16 @@
         <v>47</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>3</v>
@@ -3451,9 +3469,9 @@
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="R24" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="R24" s="6"/>
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3482,16 +3500,16 @@
         <v>65</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>3</v>
@@ -3506,7 +3524,7 @@
       <c r="Q25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="3"/>
+      <c r="R25" s="6"/>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3535,16 +3553,16 @@
         <v>126</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>3</v>
@@ -3559,7 +3577,7 @@
       <c r="Q26" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R26" s="3"/>
+      <c r="R26" s="6"/>
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3588,16 +3606,16 @@
         <v>127</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>3</v>
@@ -3612,7 +3630,7 @@
       <c r="Q27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R27" s="3"/>
+      <c r="R27" s="6"/>
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3641,16 +3659,16 @@
         <v>128</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>3</v>
@@ -3665,7 +3683,7 @@
       <c r="Q28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R28" s="3"/>
+      <c r="R28" s="6"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3694,16 +3712,16 @@
         <v>66</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>3</v>
@@ -3718,7 +3736,7 @@
       <c r="Q29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="6"/>
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3747,19 +3765,19 @@
         <v>67</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>4</v>
@@ -3771,7 +3789,7 @@
       <c r="Q30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R30" s="3"/>
+      <c r="R30" s="6"/>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3800,16 +3818,16 @@
         <v>68</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>4</v>
@@ -3824,7 +3842,7 @@
       <c r="Q31" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R31" s="3"/>
+      <c r="R31" s="6"/>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3853,16 +3871,16 @@
         <v>104</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>3</v>
@@ -3877,7 +3895,7 @@
       <c r="Q32" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R32" s="3"/>
+      <c r="R32" s="6"/>
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3906,16 +3924,16 @@
         <v>133</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>3</v>
@@ -3930,7 +3948,7 @@
       <c r="Q33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R33" s="3"/>
+      <c r="R33" s="6"/>
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3959,16 +3977,16 @@
         <v>134</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>3</v>
@@ -3983,7 +4001,7 @@
       <c r="Q34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="6"/>
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -4012,16 +4030,16 @@
         <v>103</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>3</v>
@@ -4036,7 +4054,7 @@
       <c r="Q35" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="R35" s="6"/>
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -4065,16 +4083,16 @@
         <v>135</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>3</v>
@@ -4089,7 +4107,7 @@
       <c r="Q36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R36" s="3"/>
+      <c r="R36" s="6"/>
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -4118,16 +4136,16 @@
         <v>136</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>3</v>
@@ -4142,7 +4160,7 @@
       <c r="Q37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R37" s="3"/>
+      <c r="R37" s="6"/>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4171,16 +4189,16 @@
         <v>69</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>3</v>
@@ -4195,7 +4213,7 @@
       <c r="Q38" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R38" s="3"/>
+      <c r="R38" s="6"/>
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4224,16 +4242,16 @@
         <v>70</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>3</v>
@@ -4248,7 +4266,7 @@
       <c r="Q39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R39" s="3"/>
+      <c r="R39" s="6"/>
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4277,16 +4295,16 @@
         <v>71</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>3</v>
@@ -4301,7 +4319,7 @@
       <c r="Q40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R40" s="3"/>
+      <c r="R40" s="6"/>
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4318,16 +4336,16 @@
         <v>45</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>3</v>
@@ -4344,7 +4362,9 @@
       <c r="Q41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R41" s="3"/>
+      <c r="R41" s="6">
+        <v>1</v>
+      </c>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4361,16 +4381,16 @@
         <v>140</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>3</v>
@@ -4387,7 +4407,9 @@
       <c r="Q42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R42" s="3"/>
+      <c r="R42" s="6">
+        <v>0</v>
+      </c>
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -4404,16 +4426,16 @@
         <v>150</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>3</v>
@@ -4430,7 +4452,9 @@
       <c r="Q43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R43" s="3"/>
+      <c r="R43" s="6">
+        <v>0</v>
+      </c>
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -4447,16 +4471,16 @@
         <v>149</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>4</v>
@@ -4473,7 +4497,9 @@
       <c r="Q44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R44" s="3"/>
+      <c r="R44" s="6">
+        <v>0</v>
+      </c>
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4481,7 +4507,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>220</v>
@@ -4502,7 +4528,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>41</v>
@@ -4511,7 +4537,7 @@
         <v>7</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>3</v>
@@ -4528,15 +4554,17 @@
       <c r="Q45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R45" s="3"/>
+      <c r="R45" s="6">
+        <v>1</v>
+      </c>
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>220</v>
@@ -4554,10 +4582,10 @@
         <v>99</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>41</v>
@@ -4566,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>3</v>
@@ -4583,7 +4611,9 @@
       <c r="Q46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R46" s="3"/>
+      <c r="R46" s="6">
+        <v>0</v>
+      </c>
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4612,7 +4642,7 @@
         <v>210</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>222</v>
@@ -4621,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>3</v>
@@ -4633,12 +4663,14 @@
         <v>195</v>
       </c>
       <c r="P47" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="3"/>
+      <c r="R47" s="6">
+        <v>1</v>
+      </c>
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4667,7 +4699,7 @@
         <v>221</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>222</v>
@@ -4676,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>3</v>
@@ -4688,12 +4720,14 @@
         <v>195</v>
       </c>
       <c r="P48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R48" s="3"/>
+      <c r="R48" s="6">
+        <v>0</v>
+      </c>
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4722,7 +4756,7 @@
         <v>227</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>222</v>
@@ -4731,7 +4765,7 @@
         <v>7</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>3</v>
@@ -4748,15 +4782,17 @@
       <c r="Q49" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R49" s="3"/>
+      <c r="R49" s="6">
+        <v>0</v>
+      </c>
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>220</v>
@@ -4774,10 +4810,10 @@
         <v>99</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>41</v>
@@ -4786,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>3</v>
@@ -4803,7 +4839,9 @@
       <c r="Q50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R50" s="3"/>
+      <c r="R50" s="6">
+        <v>0</v>
+      </c>
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4820,16 +4858,16 @@
         <v>224</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>3</v>
@@ -4846,7 +4884,9 @@
       <c r="Q51" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R51" s="3"/>
+      <c r="R51" s="6">
+        <v>1</v>
+      </c>
       <c r="T51" s="3"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -4863,16 +4903,16 @@
         <v>217</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>3</v>
@@ -4889,7 +4929,9 @@
       <c r="Q52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R52" s="3"/>
+      <c r="R52" s="6">
+        <v>1</v>
+      </c>
       <c r="T52" s="3"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -4900,7 +4942,7 @@
         <v>25</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -4918,19 +4960,19 @@
         <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>4</v>
@@ -4944,7 +4986,9 @@
       <c r="Q53" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R53" s="3"/>
+      <c r="R53" s="6">
+        <v>1</v>
+      </c>
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4955,7 +4999,7 @@
         <v>212</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D54" s="4">
         <v>3</v>
@@ -4973,7 +5017,7 @@
         <v>214</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>222</v>
@@ -4982,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>3</v>
@@ -4994,12 +5038,14 @@
         <v>195</v>
       </c>
       <c r="P54" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R54" s="3"/>
+      <c r="R54" s="6">
+        <v>0</v>
+      </c>
       <c r="T54" s="3"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -5007,10 +5053,10 @@
         <v>229</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D55" s="4">
         <v>3</v>
@@ -5028,7 +5074,7 @@
         <v>230</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>222</v>
@@ -5037,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>3</v>
@@ -5054,18 +5100,20 @@
       <c r="Q55" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R55" s="3"/>
+      <c r="R55" s="6">
+        <v>1</v>
+      </c>
       <c r="T55" s="3"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D56" s="4">
         <v>3</v>
@@ -5080,10 +5128,10 @@
         <v>99</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>222</v>
@@ -5092,10 +5140,10 @@
         <v>7</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>4</v>
@@ -5109,18 +5157,20 @@
       <c r="Q56" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R56" s="3"/>
+      <c r="R56" s="6">
+        <v>0</v>
+      </c>
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -5135,22 +5185,22 @@
         <v>99</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>4</v>
@@ -5164,7 +5214,9 @@
       <c r="Q57" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R57" s="3"/>
+      <c r="R57" s="6">
+        <v>0</v>
+      </c>
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5175,7 +5227,7 @@
         <v>232</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -5193,19 +5245,19 @@
         <v>233</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>3</v>
+        <v>372</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>4</v>
@@ -5214,23 +5266,25 @@
         <v>195</v>
       </c>
       <c r="P58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R58" s="3"/>
+      <c r="R58" s="6">
+        <v>0</v>
+      </c>
       <c r="T58" s="3"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D59" s="4">
         <v>2</v>
@@ -5245,25 +5299,25 @@
         <v>99</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>195</v>
@@ -5274,18 +5328,20 @@
       <c r="Q59" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R59" s="3"/>
+      <c r="R59" s="6">
+        <v>0</v>
+      </c>
       <c r="T59" s="3"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -5300,47 +5356,49 @@
         <v>99</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>195</v>
       </c>
       <c r="P60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R60" s="3"/>
+      <c r="R60" s="6">
+        <v>0</v>
+      </c>
       <c r="T60" s="3"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -5358,22 +5416,22 @@
         <v>16</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>195</v>
@@ -5384,7 +5442,9 @@
       <c r="Q61" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R61" s="3"/>
+      <c r="R61" s="6">
+        <v>0</v>
+      </c>
       <c r="T61" s="3"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5398,19 +5458,19 @@
         <v>99</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>4</v>
@@ -5427,7 +5487,9 @@
       <c r="Q62" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R62" s="3"/>
+      <c r="R62" s="6">
+        <v>0</v>
+      </c>
       <c r="T62" s="3"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5438,7 +5500,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -5453,22 +5515,22 @@
         <v>166</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>4</v>
@@ -5477,12 +5539,14 @@
         <v>195</v>
       </c>
       <c r="P63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R63" s="3"/>
+      <c r="R63" s="6">
+        <v>0</v>
+      </c>
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5493,7 +5557,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -5508,19 +5572,19 @@
         <v>99</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>3</v>
@@ -5537,7 +5601,9 @@
       <c r="Q64" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R64" s="3"/>
+      <c r="R64" s="6">
+        <v>0</v>
+      </c>
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -5554,7 +5620,7 @@
         <v>21</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>41</v>
@@ -5563,7 +5629,7 @@
         <v>7</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>4</v>
@@ -5580,7 +5646,9 @@
       <c r="Q65" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R65" s="3"/>
+      <c r="R65" s="6">
+        <v>1</v>
+      </c>
       <c r="T65" s="3"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5597,7 +5665,7 @@
         <v>31</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>41</v>
@@ -5606,7 +5674,7 @@
         <v>7</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>4</v>
@@ -5623,7 +5691,9 @@
       <c r="Q66" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R66" s="3"/>
+      <c r="R66" s="6">
+        <v>1</v>
+      </c>
       <c r="T66" s="3"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5640,7 +5710,7 @@
         <v>33</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>41</v>
@@ -5649,7 +5719,7 @@
         <v>7</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>3</v>
@@ -5666,33 +5736,35 @@
       <c r="Q67" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R67" s="3"/>
+      <c r="R67" s="6">
+        <v>1</v>
+      </c>
       <c r="T67" s="3"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>4</v>
@@ -5709,7 +5781,9 @@
       <c r="Q68" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R68" s="3"/>
+      <c r="R68" s="6">
+        <v>1</v>
+      </c>
       <c r="T68" s="3"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5726,16 +5800,16 @@
         <v>43</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>3</v>
@@ -5752,7 +5826,9 @@
       <c r="Q69" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R69" s="3"/>
+      <c r="R69" s="6">
+        <v>1</v>
+      </c>
       <c r="T69" s="3"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5763,7 +5839,7 @@
         <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -5781,7 +5857,7 @@
         <v>158</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>38</v>
@@ -5790,7 +5866,7 @@
         <v>6</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>3</v>
@@ -5805,7 +5881,7 @@
       <c r="Q70" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R70" s="3"/>
+      <c r="R70" s="6"/>
       <c r="T70" s="3"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5816,7 +5892,7 @@
         <v>155</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -5834,7 +5910,7 @@
         <v>159</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>38</v>
@@ -5843,7 +5919,7 @@
         <v>6</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>3</v>
@@ -5858,7 +5934,7 @@
       <c r="Q71" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R71" s="3"/>
+      <c r="R71" s="6"/>
       <c r="T71" s="3"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -5869,7 +5945,7 @@
         <v>157</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -5887,7 +5963,7 @@
         <v>160</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>38</v>
@@ -5896,7 +5972,7 @@
         <v>6</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>3</v>
@@ -5911,7 +5987,7 @@
       <c r="Q72" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R72" s="3"/>
+      <c r="R72" s="6"/>
       <c r="T72" s="3"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -5919,16 +5995,16 @@
         <v>202</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>41</v>
@@ -5937,7 +6013,7 @@
         <v>7</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>4</v>
@@ -5954,7 +6030,9 @@
       <c r="Q73" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R73" s="3"/>
+      <c r="R73" s="6">
+        <v>1</v>
+      </c>
       <c r="T73" s="3"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -5971,7 +6049,7 @@
         <v>161</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>41</v>
@@ -5980,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>4</v>
@@ -5997,7 +6075,9 @@
       <c r="Q74" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R74" s="3"/>
+      <c r="R74" s="6">
+        <v>1</v>
+      </c>
       <c r="T74" s="3"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -6014,7 +6094,7 @@
         <v>206</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>41</v>
@@ -6023,7 +6103,7 @@
         <v>7</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>4</v>
@@ -6040,7 +6120,9 @@
       <c r="Q75" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R75" s="3"/>
+      <c r="R75" s="6">
+        <v>1</v>
+      </c>
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6057,16 +6139,16 @@
         <v>236</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>4</v>
@@ -6083,36 +6165,38 @@
       <c r="Q76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R76" s="3"/>
+      <c r="R76" s="6">
+        <v>0</v>
+      </c>
       <c r="T76" s="3"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>4</v>
@@ -6126,7 +6210,9 @@
       <c r="Q77" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R77" s="3"/>
+      <c r="R77" s="6">
+        <v>1</v>
+      </c>
       <c r="T77" s="3"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -6136,26 +6222,36 @@
       <c r="B78" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="C78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
       <c r="G78" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H78" s="4"/>
       <c r="I78" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>4</v>
@@ -6169,107 +6265,113 @@
       <c r="Q78" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R78" s="3"/>
+      <c r="R78" s="6">
+        <v>0</v>
+      </c>
       <c r="T78" s="3"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N79" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="O79" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="P79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R79" s="3"/>
+      <c r="R79" s="6">
+        <v>0</v>
+      </c>
       <c r="T79" s="3"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
       </c>
       <c r="F80" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>248</v>
+        <v>4</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="P80" s="5">
         <v>1</v>
@@ -6277,18 +6379,20 @@
       <c r="Q80" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R80" s="3"/>
+      <c r="R80" s="6">
+        <v>0</v>
+      </c>
       <c r="T80" s="3"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>24</v>
+        <v>363</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D81" s="4">
         <v>2</v>
@@ -6297,53 +6401,55 @@
         <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>201</v>
+        <v>356</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="P81" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R81" s="3"/>
+      <c r="R81" s="6">
+        <v>0</v>
+      </c>
       <c r="T81" s="3"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D82" s="4">
         <v>2</v>
@@ -6352,31 +6458,31 @@
         <v>1</v>
       </c>
       <c r="F82" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O82" s="4" t="s">
         <v>4</v>
@@ -6387,51 +6493,41 @@
       <c r="Q82" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R82" s="3"/>
+      <c r="R82" s="6">
+        <v>0</v>
+      </c>
       <c r="T82" s="3"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D83" s="4">
-        <v>2</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="4">
-        <v>4</v>
+        <v>361</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>4</v>
@@ -6442,42 +6538,44 @@
       <c r="Q83" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R83" s="3"/>
+      <c r="R83" s="6">
+        <v>0</v>
+      </c>
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>363</v>
+        <v>141</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="P84" s="5">
         <v>1</v>
@@ -6485,33 +6583,47 @@
       <c r="Q84" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R84" s="3"/>
+      <c r="R84" s="6">
+        <v>0</v>
+      </c>
       <c r="T84" s="3"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>3</v>
@@ -6520,26 +6632,28 @@
         <v>46</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="P85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R85" s="3"/>
+      <c r="R85" s="6">
+        <v>1</v>
+      </c>
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -6554,28 +6668,28 @@
         <v>99</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>393</v>
+        <v>38</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="P86" s="5">
         <v>1</v>
@@ -6583,148 +6697,97 @@
       <c r="Q86" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R86" s="3"/>
+      <c r="R86" s="6">
+        <v>1</v>
+      </c>
       <c r="T86" s="3"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="4">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>13</v>
+        <v>395</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="P87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R87" s="3"/>
+      <c r="R87" s="6">
+        <v>0</v>
+      </c>
       <c r="T87" s="3"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="P88" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R88" s="3"/>
-      <c r="T88" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K88">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+  <conditionalFormatting sqref="K1:K87">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P88">
-    <cfRule type="expression" dxfId="25" priority="18">
+  <conditionalFormatting sqref="P87">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H88">
-    <cfRule type="expression" dxfId="24" priority="17">
+  <conditionalFormatting sqref="H2:H87">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P88">
-    <cfRule type="expression" dxfId="23" priority="16">
+  <conditionalFormatting sqref="P2:P87">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q88">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+  <conditionalFormatting sqref="Q2:Q87">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"dfm.q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"dfm.m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6758,33 +6821,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" t="s">
         <v>257</v>
       </c>
-      <c r="B1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>260</v>
-      </c>
-      <c r="F1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
         <v>99</v>
@@ -6795,13 +6858,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
         <v>99</v>
@@ -6812,13 +6875,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
         <v>99</v>
@@ -6829,13 +6892,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
@@ -6846,13 +6909,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -6863,13 +6926,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" t="s">
         <v>99</v>
@@ -6880,13 +6943,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
@@ -6897,13 +6960,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
         <v>99</v>
@@ -6914,13 +6977,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
@@ -6931,13 +6994,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
         <v>99</v>
@@ -6948,13 +7011,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
@@ -6965,13 +7028,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -6980,18 +7043,18 @@
         <v>465</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
         <v>99</v>
@@ -7002,13 +7065,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
         <v>99</v>
@@ -7019,7 +7082,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -7031,18 +7094,18 @@
         <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D17" t="s">
         <v>99</v>
@@ -7053,13 +7116,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D18" t="s">
         <v>99</v>
@@ -7070,13 +7133,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
@@ -7085,18 +7148,18 @@
         <v>341</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -7107,13 +7170,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
@@ -7124,13 +7187,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
@@ -7139,18 +7202,18 @@
         <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s">
         <v>99</v>
@@ -7159,18 +7222,18 @@
         <v>374</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
@@ -7179,18 +7242,18 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
         <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
@@ -7201,10 +7264,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
@@ -7215,13 +7278,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
@@ -7232,13 +7295,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
@@ -7249,13 +7312,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
@@ -7266,13 +7329,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C30" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
@@ -7280,13 +7343,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
@@ -7297,13 +7360,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
@@ -7314,13 +7377,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D33" t="s">
         <v>166</v>
@@ -7328,13 +7391,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C34" t="s">
         <v>399</v>
-      </c>
-      <c r="B34" t="s">
-        <v>401</v>
-      </c>
-      <c r="C34" t="s">
-        <v>402</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -7345,13 +7408,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" t="s">
         <v>409</v>
-      </c>
-      <c r="C35" t="s">
-        <v>412</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
@@ -7362,13 +7425,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B36" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E36">
         <v>25</v>

--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854515F4-D644-49C0-8FF2-97DA2E41A64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064DACD-82ED-4326-940B-F424BE5219EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="447">
   <si>
     <t>gdp</t>
   </si>
@@ -1322,6 +1322,72 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>COVID Dip Nonstationary</t>
+  </si>
+  <si>
+    <t>ffr</t>
+  </si>
+  <si>
+    <t>Federal Funds Rate</t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>DFF</t>
+  </si>
+  <si>
+    <t>mort30y</t>
+  </si>
+  <si>
+    <t>30-Year Mortgage Rate</t>
+  </si>
+  <si>
+    <t>MORTGAGE30US</t>
+  </si>
+  <si>
+    <t>aaaspread</t>
+  </si>
+  <si>
+    <t>Corporate AAA-10 Year Spread</t>
+  </si>
+  <si>
+    <t>AAA10Y</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>High Yield Bond Yield</t>
+  </si>
+  <si>
+    <t>BAMLH0A1HYBBEY</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>Capacity Utilization</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>STL.IRS</t>
+  </si>
+  <si>
+    <t>Interest Rate Spreads</t>
+  </si>
+  <si>
+    <t>ICE Indices</t>
+  </si>
+  <si>
+    <t>ICE.IND</t>
+  </si>
+  <si>
+    <t>https://www.theice.com/market-data/indices</t>
   </si>
 </sst>
 </file>
@@ -1397,6 +1463,83 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1729,83 +1872,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1831,27 +1897,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:R87" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:R87" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:R92" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:R92" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="26"/>
+    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="25"/>
+    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="24"/>
+    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="Column1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2172,10 +2238,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="P86" sqref="P86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4492,7 +4558,7 @@
         <v>195</v>
       </c>
       <c r="P44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>105</v>
@@ -4972,7 +5038,7 @@
         <v>247</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>245</v>
+        <v>3</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>4</v>
@@ -5038,13 +5104,13 @@
         <v>195</v>
       </c>
       <c r="P54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R54" s="6">
-        <v>0</v>
+      <c r="R54" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="T54" s="3"/>
     </row>
@@ -5101,7 +5167,7 @@
         <v>97</v>
       </c>
       <c r="R55" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" s="3"/>
     </row>
@@ -5200,7 +5266,7 @@
         <v>247</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>372</v>
+        <v>3</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>4</v>
@@ -5257,7 +5323,7 @@
         <v>247</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>4</v>
@@ -5530,7 +5596,7 @@
         <v>247</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>4</v>
@@ -5788,82 +5854,47 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>42</v>
+        <v>439</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>43</v>
+        <v>441</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P69" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R69" s="6">
-        <v>1</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L69" s="4"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="6"/>
       <c r="T69" s="3"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>247</v>
@@ -5872,24 +5903,28 @@
         <v>3</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="P70" s="5"/>
+      <c r="P70" s="5">
+        <v>1</v>
+      </c>
       <c r="Q70" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R70" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="R70" s="6">
+        <v>1</v>
+      </c>
       <c r="T70" s="3"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>373</v>
@@ -5901,13 +5936,13 @@
         <v>1</v>
       </c>
       <c r="F71" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>348</v>
@@ -5939,10 +5974,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>373</v>
@@ -5954,13 +5989,13 @@
         <v>1</v>
       </c>
       <c r="F72" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>348</v>
@@ -5992,31 +6027,43 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>354</v>
+        <v>157</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>6</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>353</v>
+        <v>160</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>247</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N73" s="4" t="s">
         <v>4</v>
@@ -6024,32 +6071,28 @@
       <c r="O73" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="P73" s="5">
-        <v>1</v>
-      </c>
+      <c r="P73" s="5"/>
       <c r="Q73" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R73" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R73" s="6"/>
       <c r="T73" s="3"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>161</v>
+        <v>353</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>41</v>
@@ -6082,19 +6125,19 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>41</v>
@@ -6127,22 +6170,22 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>7</v>
@@ -6163,40 +6206,40 @@
         <v>1</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="R76" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" s="3"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>4</v>
@@ -6211,38 +6254,28 @@
         <v>97</v>
       </c>
       <c r="R77" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" s="3"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H78" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="I78" s="4" t="s">
         <v>334</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>7</v>
@@ -6251,7 +6284,7 @@
         <v>248</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>4</v>
@@ -6266,19 +6299,19 @@
         <v>97</v>
       </c>
       <c r="R78" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="3"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -6290,34 +6323,32 @@
         <v>1</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>200</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H79" s="4"/>
       <c r="I79" s="4" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>248</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="P79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="5" t="s">
         <v>97</v>
@@ -6329,28 +6360,28 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>385</v>
       </c>
       <c r="D80" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
       </c>
       <c r="F80" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>350</v>
@@ -6365,13 +6396,13 @@
         <v>248</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="P80" s="5">
         <v>1</v>
@@ -6386,10 +6417,10 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>355</v>
+        <v>15</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>385</v>
@@ -6401,13 +6432,13 @@
         <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>356</v>
+        <v>201</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>350</v>
@@ -6422,13 +6453,13 @@
         <v>248</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="P81" s="5">
         <v>1</v>
@@ -6443,10 +6474,10 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>385</v>
@@ -6458,13 +6489,13 @@
         <v>1</v>
       </c>
       <c r="F82" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>350</v>
@@ -6500,16 +6531,28 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4">
+        <v>4</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>350</v>
@@ -6545,37 +6588,37 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>138</v>
+        <v>361</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="P84" s="5">
         <v>1</v>
@@ -6590,13 +6633,13 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>145</v>
+        <v>426</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>142</v>
+        <v>427</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -6611,28 +6654,28 @@
         <v>99</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>36</v>
+        <v>429</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="P85" s="5">
         <v>1</v>
@@ -6640,20 +6683,18 @@
       <c r="Q85" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R85" s="6">
-        <v>1</v>
-      </c>
+      <c r="R85" s="6"/>
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>213</v>
+        <v>431</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -6662,28 +6703,28 @@
         <v>1</v>
       </c>
       <c r="F86" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>13</v>
+        <v>432</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>4</v>
@@ -6697,29 +6738,39 @@
       <c r="Q86" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R86" s="6">
-        <v>1</v>
-      </c>
+      <c r="R86" s="6"/>
       <c r="T86" s="3"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>394</v>
+        <v>434</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>3</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>238</v>
@@ -6728,66 +6779,323 @@
         <v>248</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="P87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R87" s="6">
+      <c r="R87" s="6"/>
+      <c r="T87" s="3"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
+        <v>4</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P88" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R88" s="6"/>
+      <c r="T88" s="3"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P89" s="5">
         <v>0</v>
       </c>
-      <c r="T87" s="3"/>
+      <c r="Q89" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R89" s="6">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P90" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R90" s="6">
+        <v>1</v>
+      </c>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P91" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R91" s="6">
+        <v>1</v>
+      </c>
+      <c r="T91" s="3"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R92" s="6">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K87">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+  <conditionalFormatting sqref="K1:K92">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P87">
-    <cfRule type="expression" dxfId="26" priority="18">
+  <conditionalFormatting sqref="P92">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H87">
-    <cfRule type="expression" dxfId="25" priority="17">
+  <conditionalFormatting sqref="H2:H92">
+    <cfRule type="expression" dxfId="5" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P87">
-    <cfRule type="expression" dxfId="24" priority="16">
+  <conditionalFormatting sqref="P2:P92">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q87">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+  <conditionalFormatting sqref="Q2:Q92">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"dfm.q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"dfm.m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6804,10 +7112,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7437,6 +7745,37 @@
         <v>25</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>445</v>
+      </c>
+      <c r="B38" t="s">
+        <v>444</v>
+      </c>
+      <c r="C38" t="s">
+        <v>446</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064DACD-82ED-4326-940B-F424BE5219EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8B2C6-4899-4901-B9E7-23BECE986760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="12" r:id="rId1"/>
     <sheet name="releases" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="463">
   <si>
     <t>gdp</t>
   </si>
@@ -72,9 +73,6 @@
     <t>vsales</t>
   </si>
   <si>
-    <t>ue</t>
-  </si>
-  <si>
     <t>UNRATE</t>
   </si>
   <si>
@@ -817,17 +815,6 @@
   </si>
   <si>
     <t>relnotes</t>
-  </si>
-  <si>
-    <t>The WEI is an index of real economic activity using timely and relevant high-frequency data. It represents the common component of ten different daily and weekly series covering consumer behavior, the labor market, and production. The WEI is scaled to the four-quarter GDP growth rate; for example, if the WEI reads -2 percent and the current level of the WEI persists for an entire quarter, we would expect, on average, GDP that quarter to be 2 percent lower than a year previously. _x000D_
-_x000D_
-The WEI is a composite of 10 weekly economic indicators: Redbook same-store sales, Rasmussen Consumer Index, new claims for unemployment insurance, continued claims for unemployment insurance, adjusted income/employment tax withholdings (from Booth Financial Consulting), railroad traffic originated (from the Association of American Railroads), the American Staffing Association Staffing Index, steel production, wholesale sales of gasoline, diesel, and jet fuel, and weekly average US electricity load (with the remaining data supplied by Haver Analytics). All series are represented as year-over-year percentage changes. These series are combined into a single index of weekly economic activity._x000D_
-_x000D_
-For additional details, including an analysis of the performance of the model, see Lewis, Mertens, and Stock (2020), â€œU.S. Economic Activity during the Early Weeks of the SARS-Cov-2 Outbreak.â€ at https://www.newyorkfed.org/research/staff_reports/sr920._x000D_
-_x000D_
-This index has been developed by Daniel Lewis, an economist in the Federal Reserve Bank of New York, Karel Mertens, a senior economic policy advisor at the Federal Reserve Bank of Dallas, and James Stock, the Harold Hitchings Burbank Professor of Political Economy, Faculty of Arts and Sciences of Harvard University._x000D_
-_x000D_
-The index is not an official forecast of the Federal Reserve Bank of New York, its president, the Federal Reserve System, or the Federal Open Market Committee.</t>
   </si>
   <si>
     <t>To obtain detailed information regarding the construction of the St. Louis Financial Stress Index, please see the online appendix at_x000D_
@@ -880,9 +867,6 @@
     <t>http://www.bls.gov/jlt/</t>
   </si>
   <si>
-    <t>https://www.newyorkfed.org/research/policy/weekly-economic-index</t>
-  </si>
-  <si>
     <t>http://www.eia.doe.gov/dnav/pet/pet_pri_spt_s1_d.htm</t>
   </si>
   <si>
@@ -958,9 +942,6 @@
     <t>Job Openings and Labor Turnover Survey</t>
   </si>
   <si>
-    <t>Weekly Economic Index (Lewis-Mertens-Stock)</t>
-  </si>
-  <si>
     <t>Spot Prices</t>
   </si>
   <si>
@@ -1039,9 +1020,6 @@
     <t>BLS.JOLTS</t>
   </si>
   <si>
-    <t>NYF.WEI</t>
-  </si>
-  <si>
     <t>STL.FSI</t>
   </si>
   <si>
@@ -1168,9 +1146,6 @@
     <t>diff1</t>
   </si>
   <si>
-    <t>Credit</t>
-  </si>
-  <si>
     <t>Case-Shiller National Housing Price Index</t>
   </si>
   <si>
@@ -1189,9 +1164,6 @@
     <t>disprank</t>
   </si>
   <si>
-    <t>Currencies</t>
-  </si>
-  <si>
     <t>disptabs</t>
   </si>
   <si>
@@ -1201,15 +1173,9 @@
     <t>Labor_Market</t>
   </si>
   <si>
-    <t>Consumer_Sales</t>
-  </si>
-  <si>
     <t>Stocks_and_Commodities</t>
   </si>
   <si>
-    <t>Consumer_Wealth</t>
-  </si>
-  <si>
     <t>billions $</t>
   </si>
   <si>
@@ -1234,9 +1200,6 @@
     <t>Bitcoin</t>
   </si>
   <si>
-    <t>CBBTCUSD</t>
-  </si>
-  <si>
     <t>COIN.CRYPT</t>
   </si>
   <si>
@@ -1321,9 +1284,6 @@
     <t>$ per hour</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>COVID Dip Nonstationary</t>
   </si>
   <si>
@@ -1336,9 +1296,6 @@
     <t>Rates</t>
   </si>
   <si>
-    <t>DFF</t>
-  </si>
-  <si>
     <t>mort30y</t>
   </si>
   <si>
@@ -1348,24 +1305,6 @@
     <t>MORTGAGE30US</t>
   </si>
   <si>
-    <t>aaaspread</t>
-  </si>
-  <si>
-    <t>Corporate AAA-10 Year Spread</t>
-  </si>
-  <si>
-    <t>AAA10Y</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>High Yield Bond Yield</t>
-  </si>
-  <si>
-    <t>BAMLH0A1HYBBEY</t>
-  </si>
-  <si>
     <t>cu</t>
   </si>
   <si>
@@ -1375,19 +1314,121 @@
     <t>TCU</t>
   </si>
   <si>
-    <t>STL.IRS</t>
-  </si>
-  <si>
-    <t>Interest Rate Spreads</t>
-  </si>
-  <si>
-    <t>ICE Indices</t>
-  </si>
-  <si>
-    <t>ICE.IND</t>
-  </si>
-  <si>
-    <t>https://www.theice.com/market-data/indices</t>
+    <t>nc_input_reason</t>
+  </si>
+  <si>
+    <t>EFFR</t>
+  </si>
+  <si>
+    <t>DBAA</t>
+  </si>
+  <si>
+    <t>Corporate Aaa Bond Yield</t>
+  </si>
+  <si>
+    <t>DAAA</t>
+  </si>
+  <si>
+    <t>Corporate Baa Bond Yield</t>
+  </si>
+  <si>
+    <t>baa</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Industrial Production: Final Products</t>
+  </si>
+  <si>
+    <t>IPFPNSS</t>
+  </si>
+  <si>
+    <t>index (2017 = 100)</t>
+  </si>
+  <si>
+    <t>ipfinal</t>
+  </si>
+  <si>
+    <t>ipcons</t>
+  </si>
+  <si>
+    <t>Industrial Production: Consumer Goods</t>
+  </si>
+  <si>
+    <t>IPCONGD</t>
+  </si>
+  <si>
+    <t>ipfuels</t>
+  </si>
+  <si>
+    <t>Industrial Production: Fuels</t>
+  </si>
+  <si>
+    <t>IPFUELS</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>mnocg</t>
+  </si>
+  <si>
+    <t>Manufacturers New Orders: Consumer Goods</t>
+  </si>
+  <si>
+    <t>ACOGNO</t>
+  </si>
+  <si>
+    <t>nasdaq</t>
+  </si>
+  <si>
+    <t>Nasdaq Composite</t>
+  </si>
+  <si>
+    <t>%5EIXIC</t>
+  </si>
+  <si>
+    <t>ppi</t>
+  </si>
+  <si>
+    <t>Producer Price Index: All Commodities</t>
+  </si>
+  <si>
+    <t>PPIACO</t>
+  </si>
+  <si>
+    <t>BLS.PPI</t>
+  </si>
+  <si>
+    <t>Producer Price Index</t>
+  </si>
+  <si>
+    <t>http://www.bls.gov/ppi/</t>
+  </si>
+  <si>
+    <t>index (1982 = 100)</t>
+  </si>
+  <si>
+    <t>unemp</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Retail_Sales</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>BTC-USD</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1458,6 +1499,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,8 +1941,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:R92" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:R92" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:R98" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:R98" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R98">
+    <sortCondition ref="C1:C98"/>
+  </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="28"/>
     <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="27"/>
@@ -1917,15 +1964,15 @@
     <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="14"/>
     <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="13"/>
     <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="Column1" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="nc_input_reason" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6B723DB4-C5DE-4CEA-B233-F7DA5B4561BB}" name="Table58" displayName="Table58" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31" xr:uid="{3656640B-57B4-46FA-A054-34E7C7B65205}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6B723DB4-C5DE-4CEA-B233-F7DA5B4561BB}" name="Table58" displayName="Table58" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{3656640B-57B4-46FA-A054-34E7C7B65205}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C4F99C6F-24A0-406E-A92B-F9D1249FD150}" name="relkey"/>
     <tableColumn id="2" xr3:uid="{3F782711-CFA9-45C4-BF2B-782716BFE4EF}" name="relname"/>
@@ -2238,17 +2285,17 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="3" customWidth="1"/>
@@ -2258,7 +2305,7 @@
     <col min="13" max="14" width="6.85546875" style="4" customWidth="1"/>
     <col min="15" max="16" width="7.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="3"/>
@@ -2269,52 +2316,52 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>424</v>
@@ -2323,16 +2370,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>458</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -2341,245 +2388,255 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
       <c r="Q2" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="R2" s="6"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>458</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
       <c r="Q3" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="R3" s="6"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>458</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
       <c r="Q4" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="R4" s="6"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>458</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
       <c r="Q5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R5" s="6"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>458</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
       <c r="Q6" s="5" t="s">
         <v>96</v>
       </c>
@@ -2588,51 +2645,53 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>458</v>
       </c>
       <c r="D7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="5"/>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
       <c r="Q7" s="5" t="s">
         <v>96</v>
       </c>
@@ -2641,51 +2700,53 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="D8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>108</v>
+        <v>365</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
       <c r="Q8" s="5" t="s">
         <v>96</v>
       </c>
@@ -2694,51 +2755,53 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="D9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
       <c r="Q9" s="5" t="s">
         <v>96</v>
       </c>
@@ -2747,2271 +2810,2297 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
       <c r="Q10" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="R10" s="6"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="D11" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R11" s="6"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="D12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
-        <v>11</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R12" s="6"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="D13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R13" s="6"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="R14" s="6"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
       <c r="F15" s="4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R15" s="6"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="R16" s="6"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
         <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="R17" s="6"/>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R18" s="6"/>
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R19" s="6"/>
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="4">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R20" s="6"/>
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R21" s="6"/>
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
       </c>
       <c r="F22" s="4">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="R22" s="6"/>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="4">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R23" s="6"/>
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F24" s="4">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R24" s="6"/>
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
       <c r="E25" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="R25" s="6"/>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R26" s="6"/>
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="R27" s="6"/>
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4">
         <v>4</v>
       </c>
       <c r="F28" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R28" s="6"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R29" s="6"/>
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="4">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>372</v>
+        <v>3</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R30" s="6"/>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" s="4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="R31" s="6"/>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="4">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="R32" s="6"/>
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R33" s="6"/>
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R34" s="6"/>
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="4">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="R35" s="6"/>
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
         <v>23</v>
       </c>
-      <c r="D36" s="4">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4">
-        <v>3</v>
-      </c>
-      <c r="F36" s="4">
-        <v>35</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R36" s="6"/>
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="4">
         <v>3</v>
       </c>
       <c r="F37" s="4">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="R37" s="6"/>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="R38" s="6"/>
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="4">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R39" s="6"/>
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="4">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R40" s="6"/>
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>35</v>
+        <v>86</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>28</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="O41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="5">
-        <v>1</v>
-      </c>
+      <c r="P41" s="5"/>
       <c r="Q41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R41" s="6">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R41" s="6"/>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>143</v>
+        <v>87</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>29</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>3</v>
+        <v>367</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P42" s="5">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P42" s="5"/>
       <c r="Q42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R42" s="6">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R42" s="6"/>
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>148</v>
+        <v>89</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4">
+        <v>30</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P43" s="5"/>
       <c r="Q43" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R43" s="6">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="R43" s="6"/>
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>147</v>
+        <v>48</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>31</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P44" s="5">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P44" s="5"/>
       <c r="Q44" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="R44" s="6">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="R44" s="6"/>
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="4">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P45" s="5">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P45" s="5"/>
       <c r="Q45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R45" s="6">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R45" s="6"/>
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>377</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>375</v>
+        <v>191</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
       </c>
       <c r="E46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P46" s="5">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P46" s="5"/>
       <c r="Q46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R46" s="6">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R46" s="6"/>
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
         <v>2</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
       <c r="F47" s="4">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P47" s="5">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P47" s="5"/>
       <c r="Q47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R47" s="6">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="R47" s="6"/>
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
       </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="4">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P48" s="5">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P48" s="5"/>
       <c r="Q48" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R48" s="6">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R48" s="6"/>
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
       </c>
       <c r="E49" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="4">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P49" s="5">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P49" s="5"/>
       <c r="Q49" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R49" s="6">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R49" s="6"/>
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>405</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>406</v>
+        <v>167</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
         <v>2</v>
       </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
       <c r="F50" s="4">
+        <v>37</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="L50" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P50" s="5">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P50" s="5"/>
       <c r="Q50" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R50" s="6">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="R50" s="6"/>
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>228</v>
+        <v>168</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>38</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P51" s="5">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P51" s="5"/>
       <c r="Q51" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R51" s="6">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R51" s="6"/>
       <c r="T51" s="3"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>216</v>
+        <v>169</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>39</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P52" s="5">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P52" s="5"/>
       <c r="Q52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R52" s="6">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R52" s="6"/>
       <c r="T52" s="3"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>25</v>
+        <v>368</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="D53" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -5020,112 +5109,108 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P53" s="5">
         <v>1</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R53" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R53" s="6"/>
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>211</v>
+        <v>371</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>212</v>
+        <v>369</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="D54" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>214</v>
+        <v>370</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P54" s="5">
         <v>0</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R54" s="6"/>
       <c r="T54" s="3"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>378</v>
+        <v>208</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="D55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -5134,55 +5219,53 @@
         <v>3</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>3</v>
+        <v>442</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P55" s="5">
         <v>1</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R55" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R55" s="6"/>
       <c r="T55" s="3"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>410</v>
+        <v>217</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>411</v>
+        <v>218</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="D56" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
@@ -5191,55 +5274,53 @@
         <v>4</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>412</v>
+        <v>220</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>245</v>
+        <v>442</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P56" s="5">
         <v>1</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R56" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R56" s="6"/>
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>420</v>
+        <v>224</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>421</v>
+        <v>225</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -5248,52 +5329,50 @@
         <v>5</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>423</v>
+        <v>221</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>3</v>
+        <v>442</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P57" s="5">
         <v>1</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R57" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R57" s="6"/>
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>231</v>
+        <v>395</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>385</v>
+        <v>219</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -5302,58 +5381,56 @@
         <v>1</v>
       </c>
       <c r="F58" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R58" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R58" s="6"/>
       <c r="T58" s="3"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>368</v>
+        <v>241</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>369</v>
+        <v>242</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>373</v>
+        <v>99</v>
       </c>
       <c r="D59" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -5362,55 +5439,51 @@
         <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>370</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>247</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R59" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R59" s="6"/>
       <c r="T59" s="3"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>366</v>
+        <v>43</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>373</v>
+        <v>99</v>
       </c>
       <c r="D60" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -5419,55 +5492,53 @@
         <v>2</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P60" s="5">
         <v>1</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R60" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R60" s="6"/>
       <c r="T60" s="3"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>371</v>
+        <v>239</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>373</v>
+        <v>99</v>
       </c>
       <c r="D61" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
@@ -5476,97 +5547,105 @@
         <v>3</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>247</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P61" s="5">
         <v>1</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R61" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R61" s="6"/>
       <c r="T61" s="3"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>449</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>27</v>
+        <v>450</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>4</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>41</v>
+        <v>455</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="P62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R62" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R62" s="7"/>
       <c r="T62" s="3"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>456</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -5578,55 +5657,53 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R63" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R63" s="6"/>
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -5635,202 +5712,244 @@
         <v>2</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>382</v>
+        <v>213</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>388</v>
+        <v>221</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R64" s="6">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>40</v>
+        <v>372</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P65" s="5">
         <v>1</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R65" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R65" s="6"/>
       <c r="T65" s="3"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>30</v>
+        <v>401</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>31</v>
+        <v>402</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P66" s="5">
         <v>1</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R66" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R66" s="6"/>
       <c r="T66" s="3"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>151</v>
+        <v>410</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>32</v>
+        <v>411</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>5</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>33</v>
+        <v>412</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P67" s="5">
         <v>1</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R67" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R67" s="6"/>
       <c r="T67" s="3"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>413</v>
+        <v>16</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>414</v>
+        <v>26</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>6</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>419</v>
+        <v>40</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>4</v>
@@ -5839,95 +5958,136 @@
         <v>4</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R68" s="6">
-        <v>1</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="R68" s="6"/>
       <c r="T68" s="3"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>439</v>
+        <v>19</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>440</v>
+        <v>39</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>7</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>441</v>
+        <v>20</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="L69" s="4"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
+        <v>341</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P69" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="R69" s="6"/>
       <c r="T69" s="3"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>44</v>
+        <v>234</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>8</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P70" s="5">
         <v>1</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R70" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R70" s="6"/>
       <c r="T70" s="3"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -5936,36 +6096,38 @@
         <v>1</v>
       </c>
       <c r="F71" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P71" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="P71" s="5">
+        <v>1</v>
+      </c>
       <c r="Q71" s="5" t="s">
         <v>96</v>
       </c>
@@ -5974,40 +6136,40 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>435</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>155</v>
+        <v>432</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>159</v>
+        <v>433</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>3</v>
@@ -6016,51 +6178,53 @@
         <v>4</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P72" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="P72" s="5">
+        <v>1</v>
+      </c>
       <c r="Q72" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R72" s="6"/>
+      <c r="R72" s="7"/>
       <c r="T72" s="3"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>436</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>160</v>
+        <v>438</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>3</v>
@@ -6069,249 +6233,301 @@
         <v>4</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P73" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="P73" s="5">
+        <v>1</v>
+      </c>
       <c r="Q73" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R73" s="6"/>
+      <c r="R73" s="7"/>
       <c r="T73" s="3"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>354</v>
+        <v>440</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D74" s="4">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>353</v>
+        <v>441</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>41</v>
+        <v>434</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="P74" s="5">
         <v>1</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R74" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R74" s="7"/>
       <c r="T74" s="3"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>207</v>
+        <v>227</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>5</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P75" s="5">
         <v>1</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R75" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R75" s="6"/>
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>204</v>
+        <v>443</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>205</v>
+        <v>444</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>6</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>206</v>
+        <v>445</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P76" s="5">
         <v>1</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R76" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R76" s="6"/>
       <c r="T76" s="3"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P77" s="5">
         <v>1</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R77" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R77" s="6"/>
       <c r="T77" s="3"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>239</v>
+        <v>403</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>240</v>
+        <v>404</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>8</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>241</v>
+        <v>405</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P78" s="5">
         <v>1</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R78" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R78" s="6"/>
       <c r="T78" s="3"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>242</v>
+        <v>421</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>243</v>
+        <v>422</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>100</v>
+        <v>457</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -6320,23 +6536,25 @@
         <v>1</v>
       </c>
       <c r="F79" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H79" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="I79" s="4" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>4</v>
@@ -6345,28 +6563,26 @@
         <v>4</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R79" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R79" s="6"/>
       <c r="T79" s="3"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>14</v>
+        <v>415</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>26</v>
+        <v>416</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -6378,55 +6594,53 @@
         <v>1</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="P80" s="5">
         <v>1</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R80" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R80" s="6"/>
       <c r="T80" s="3"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>24</v>
+        <v>419</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="D81" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
@@ -6435,22 +6649,22 @@
         <v>2</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>201</v>
+        <v>420</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>4</v>
@@ -6459,31 +6673,29 @@
         <v>4</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P81" s="5">
         <v>1</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R81" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R81" s="6"/>
       <c r="T81" s="3"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="D82" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="4">
         <v>1</v>
@@ -6492,55 +6704,53 @@
         <v>3</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="P82" s="5">
         <v>1</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R82" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R82" s="6"/>
       <c r="T82" s="3"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="D83" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
@@ -6549,97 +6759,105 @@
         <v>4</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="P83" s="5">
         <v>1</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R83" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R83" s="6"/>
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>361</v>
+        <v>24</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="P84" s="5">
         <v>1</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R84" s="6">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R84" s="6"/>
       <c r="T84" s="3"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>426</v>
+        <v>18</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>427</v>
+        <v>38</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -6648,53 +6866,53 @@
         <v>1</v>
       </c>
       <c r="F85" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P85" s="5">
         <v>1</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R85" s="6"/>
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>430</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>431</v>
+        <v>29</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -6703,25 +6921,25 @@
         <v>1</v>
       </c>
       <c r="F86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>432</v>
+        <v>30</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>4</v>
@@ -6730,26 +6948,26 @@
         <v>4</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P86" s="5">
         <v>1</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R86" s="6"/>
       <c r="T86" s="3"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>433</v>
+        <v>201</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -6758,25 +6976,25 @@
         <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>442</v>
+        <v>334</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>4</v>
@@ -6785,26 +7003,26 @@
         <v>4</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P87" s="5">
         <v>1</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="R87" s="6"/>
       <c r="T87" s="3"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>436</v>
+        <v>202</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>437</v>
+        <v>206</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -6813,25 +7031,25 @@
         <v>1</v>
       </c>
       <c r="F88" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>4</v>
@@ -6840,71 +7058,81 @@
         <v>4</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P88" s="5">
         <v>1</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="R88" s="6"/>
       <c r="T88" s="3"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>138</v>
+        <v>204</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>4</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P89" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R89" s="6">
-        <v>0</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="R89" s="6"/>
       <c r="T89" s="3"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -6916,19 +7144,19 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>247</v>
@@ -6937,7 +7165,7 @@
         <v>3</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="O90" s="4" t="s">
         <v>4</v>
@@ -6946,22 +7174,20 @@
         <v>1</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R90" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R90" s="6"/>
       <c r="T90" s="3"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>12</v>
+        <v>446</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>213</v>
+        <v>447</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -6970,93 +7196,427 @@
         <v>1</v>
       </c>
       <c r="F91" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>13</v>
+        <v>448</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>247</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="P91" s="5">
         <v>1</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R91" s="6">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R91" s="6"/>
       <c r="T91" s="3"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>3</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>245</v>
+        <v>3</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="P92" s="5">
         <v>0</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R92" s="6">
+        <v>96</v>
+      </c>
+      <c r="R92" s="6"/>
+      <c r="T92" s="3"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>4</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P93" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R93" s="6"/>
+      <c r="T93" s="3"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4">
+        <v>5</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R94" s="6"/>
+      <c r="T94" s="3"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4">
+        <v>6</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P95" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R95" s="6"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="F96" s="4">
+        <v>7</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P96" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R96" s="6"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4">
+        <v>8</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P97" s="5">
         <v>0</v>
       </c>
-      <c r="T92" s="3"/>
+      <c r="Q97" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R97" s="6"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>9</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P98" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R98" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K92">
+  <conditionalFormatting sqref="K1:K98">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
@@ -7070,22 +7630,22 @@
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P92">
+  <conditionalFormatting sqref="P94">
     <cfRule type="expression" dxfId="6" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H92">
+  <conditionalFormatting sqref="H2:H98">
     <cfRule type="expression" dxfId="5" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P92">
+  <conditionalFormatting sqref="P2:P98">
     <cfRule type="expression" dxfId="4" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q92">
+  <conditionalFormatting sqref="Q2:Q98">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
@@ -7112,10 +7672,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,36 +7689,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
         <v>254</v>
       </c>
-      <c r="B1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>255</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>256</v>
       </c>
-      <c r="E1" t="s">
-        <v>257</v>
-      </c>
       <c r="F1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" t="s">
         <v>258</v>
       </c>
-      <c r="C2" t="s">
-        <v>259</v>
-      </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>53</v>
@@ -7166,16 +7726,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>54</v>
@@ -7183,16 +7743,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>199</v>
@@ -7200,16 +7760,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>27</v>
@@ -7217,16 +7777,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>97</v>
@@ -7234,16 +7794,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>95</v>
@@ -7251,16 +7811,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -7268,16 +7828,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>229</v>
@@ -7285,16 +7845,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>93</v>
@@ -7302,16 +7862,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -7319,16 +7879,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>192</v>
@@ -7336,444 +7896,413 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>465</v>
-      </c>
-      <c r="F13" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14">
-        <v>212</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" t="s">
-        <v>279</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>302</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>187</v>
-      </c>
-      <c r="F16" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18">
-        <v>92</v>
+        <v>341</v>
+      </c>
+      <c r="F18" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19">
-        <v>341</v>
-      </c>
-      <c r="F19" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21">
-        <v>231</v>
+        <v>321</v>
+      </c>
+      <c r="F21" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24">
-        <v>351</v>
-      </c>
-      <c r="F24" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25">
-        <v>219</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B26" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="C26" t="s">
+        <v>285</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27">
-        <v>378</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28">
-        <v>445</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
-        <v>403</v>
+        <v>288</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E30">
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31">
-        <v>190</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="C32" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="B33" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>98</v>
+      </c>
+      <c r="E33">
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>398</v>
+      </c>
+      <c r="B34" t="s">
         <v>396</v>
-      </c>
-      <c r="B34" t="s">
-        <v>398</v>
       </c>
       <c r="C34" t="s">
         <v>399</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34">
-        <v>441</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>406</v>
+      </c>
+      <c r="B35" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" t="s">
         <v>408</v>
       </c>
-      <c r="B35" t="s">
-        <v>406</v>
-      </c>
-      <c r="C35" t="s">
-        <v>409</v>
-      </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35">
-        <v>503</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="B36" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="C36" t="s">
-        <v>418</v>
+        <v>454</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
       </c>
       <c r="E36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>442</v>
-      </c>
-      <c r="B37" t="s">
-        <v>443</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>445</v>
-      </c>
-      <c r="B38" t="s">
-        <v>444</v>
-      </c>
-      <c r="C38" t="s">
-        <v>446</v>
-      </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38">
-        <v>209</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8B2C6-4899-4901-B9E7-23BECE986760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD42873B-9AAB-49F0-A9BC-3441CFA77FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="12" r:id="rId1"/>
     <sheet name="releases" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1428,7 +1427,7 @@
     <t>Banking</t>
   </si>
   <si>
-    <t>BTC-USD</t>
+    <t>CBBTCUSD</t>
   </si>
 </sst>
 </file>
@@ -1507,83 +1506,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1916,6 +1838,83 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1941,30 +1940,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:R98" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:R98" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:R98" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R98">
     <sortCondition ref="C1:C98"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="26"/>
-    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="25"/>
-    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="24"/>
-    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="nc_input_reason" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="13"/>
+    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="nc_input_reason" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2287,8 +2286,8 @@
   </sheetPr>
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,7 +5674,7 @@
         <v>246</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>4</v>
@@ -7260,7 +7259,7 @@
         <v>462</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>387</v>
@@ -7617,45 +7616,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K98">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P94">
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H98">
-    <cfRule type="expression" dxfId="5" priority="17">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P98">
-    <cfRule type="expression" dxfId="4" priority="16">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q98">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"dfm.q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"dfm.m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD42873B-9AAB-49F0-A9BC-3441CFA77FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C632D-3453-492C-AD74-F30226319912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="457">
   <si>
     <t>gdp</t>
   </si>
@@ -339,9 +339,6 @@
     <t>sckey</t>
   </si>
   <si>
-    <t>sa</t>
-  </si>
-  <si>
     <t>IMPGSC1</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
     <t>yahoo</t>
   </si>
   <si>
-    <t>Chicago Fed National Activity Index</t>
-  </si>
-  <si>
     <t>Government Spending</t>
   </si>
   <si>
@@ -772,12 +766,6 @@
   </si>
   <si>
     <t>Personal Consumption</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>nc_dfm_input</t>
@@ -893,9 +881,6 @@
     <t>https://www.philadelphiafed.org/research-and-data/regional-economy/business-outlook-survey/</t>
   </si>
   <si>
-    <t>http://www.chicagofed.org/webpages/publications/cfnai/index.cfm</t>
-  </si>
-  <si>
     <t>https://apps.newyorkfed.org/markets/autorates/fed%20funds</t>
   </si>
   <si>
@@ -1032,9 +1017,6 @@
   </si>
   <si>
     <t>MOO.BOND</t>
-  </si>
-  <si>
-    <t>CHI.NAI</t>
   </si>
   <si>
     <t>DAL.MOS</t>
@@ -1434,7 +1416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1463,6 +1445,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1484,7 +1479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1501,11 +1496,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1587,25 +1663,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1838,83 +1895,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1940,45 +1920,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:R98" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:R98" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:Q98" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:Q98" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q98">
     <sortCondition ref="C1:C98"/>
   </sortState>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{ED9C9D35-83EF-4D33-B5A6-29714463F59D}" name="sa" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="nc_input_reason" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6B723DB4-C5DE-4CEA-B233-F7DA5B4561BB}" name="Table58" displayName="Table58" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30" xr:uid="{3656640B-57B4-46FA-A054-34E7C7B65205}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C4F99C6F-24A0-406E-A92B-F9D1249FD150}" name="relkey"/>
-    <tableColumn id="2" xr3:uid="{3F782711-CFA9-45C4-BF2B-782716BFE4EF}" name="relname"/>
-    <tableColumn id="3" xr3:uid="{1D48E6E0-EC30-4FE5-A596-E9565E6D64B7}" name="relurl"/>
-    <tableColumn id="4" xr3:uid="{6B486060-7D64-4F92-9FEA-7CD1FD3F275C}" name="relsc"/>
-    <tableColumn id="5" xr3:uid="{3F815AD1-AA9E-4C3D-BDF5-A0DBCB4806A5}" name="relsckey"/>
-    <tableColumn id="6" xr3:uid="{CF7D9EEC-BF9A-4961-9730-8342883A3858}" name="relnotes"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disprank" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{5C657D4D-8A66-4157-8DB5-145B21A2134C}" name="disptabs" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{BB6C6479-DCFC-4184-88B3-AEDE3CAC59A3}" name="disporder" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{660D69F6-B312-40A1-9E4C-CFF43DBEC0B3}" name="source" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{172B3803-5494-4C90-B939-5C2F79872038}" name="sckey" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="relkey" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5F680C4B-D29A-4EFC-BE1D-FFAD04A6ECBF}" name="freq" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="nc_input_reason" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2286,8 +2250,8 @@
   </sheetPr>
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="M102" sqref="M102"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,16 +2282,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>97</v>
@@ -2336,7 +2300,7 @@
         <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>36</v>
@@ -2345,37 +2309,35 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="R1" s="3"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
@@ -2393,44 +2355,42 @@
         <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="3"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -2445,47 +2405,45 @@
         <v>98</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="5">
+        <v>192</v>
+      </c>
+      <c r="O3" s="5">
         <v>0</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="3"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2500,47 +2458,45 @@
         <v>98</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P4" s="5">
+        <v>192</v>
+      </c>
+      <c r="O4" s="5">
         <v>0</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="3"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2555,47 +2511,45 @@
         <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R5" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="3"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2610,47 +2564,45 @@
         <v>98</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P6" s="5">
+        <v>192</v>
+      </c>
+      <c r="O6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="3"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -2668,44 +2620,42 @@
         <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="3"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -2720,47 +2670,45 @@
         <v>98</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="3"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2775,47 +2723,45 @@
         <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="3"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2833,44 +2779,42 @@
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="3"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2885,10 +2829,10 @@
         <v>98</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>37</v>
@@ -2897,33 +2841,31 @@
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="3"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2938,10 +2880,10 @@
         <v>98</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>37</v>
@@ -2950,33 +2892,31 @@
         <v>6</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="3"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2991,10 +2931,10 @@
         <v>98</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>37</v>
@@ -3003,22 +2943,20 @@
         <v>6</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="3"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3026,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -3047,31 +2985,29 @@
         <v>2</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R14" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="3"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3079,7 +3015,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>22</v>
@@ -3100,31 +3036,29 @@
         <v>50</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R15" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="3"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3132,7 +3066,7 @@
         <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
@@ -3153,31 +3087,29 @@
         <v>51</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R16" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="3"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -3185,7 +3117,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>22</v>
@@ -3206,39 +3138,37 @@
         <v>52</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R17" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="3"/>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>22</v>
@@ -3256,42 +3186,40 @@
         <v>98</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="3"/>
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -3309,42 +3237,40 @@
         <v>98</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="3"/>
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
@@ -3362,42 +3288,40 @@
         <v>98</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="3"/>
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>22</v>
@@ -3415,34 +3339,32 @@
         <v>98</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="3"/>
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3450,7 +3372,7 @@
         <v>72</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -3471,39 +3393,37 @@
         <v>53</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R22" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="3"/>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>22</v>
@@ -3524,39 +3444,37 @@
         <v>54</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="3"/>
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
@@ -3574,42 +3492,40 @@
         <v>98</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="3"/>
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -3627,42 +3543,40 @@
         <v>98</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="3"/>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -3680,34 +3594,32 @@
         <v>98</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="3"/>
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3715,7 +3627,7 @@
         <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
@@ -3736,31 +3648,29 @@
         <v>55</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R27" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="3"/>
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3768,7 +3678,7 @@
         <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
@@ -3789,31 +3699,29 @@
         <v>56</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="3"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3821,7 +3729,7 @@
         <v>79</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
@@ -3842,39 +3750,37 @@
         <v>57</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="3"/>
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
@@ -3895,31 +3801,29 @@
         <v>58</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="3"/>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3927,7 +3831,7 @@
         <v>81</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
@@ -3948,31 +3852,29 @@
         <v>59</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="3"/>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3980,7 +3882,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>22</v>
@@ -4001,31 +3903,29 @@
         <v>60</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="3"/>
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -4033,7 +3933,7 @@
         <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>22</v>
@@ -4054,31 +3954,29 @@
         <v>61</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="3"/>
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -4086,7 +3984,7 @@
         <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
@@ -4107,31 +4005,29 @@
         <v>62</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="3"/>
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -4139,7 +4035,7 @@
         <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>22</v>
@@ -4160,31 +4056,29 @@
         <v>63</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="3"/>
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -4213,36 +4107,34 @@
         <v>46</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="3"/>
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>85</v>
@@ -4266,39 +4158,37 @@
         <v>64</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R37" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="3"/>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>22</v>
@@ -4316,42 +4206,40 @@
         <v>98</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="3"/>
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
@@ -4369,42 +4257,40 @@
         <v>98</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="3"/>
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
@@ -4422,34 +4308,32 @@
         <v>98</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="3"/>
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4478,31 +4362,29 @@
         <v>65</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="3"/>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4531,31 +4413,29 @@
         <v>66</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>246</v>
+        <v>361</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>367</v>
+        <v>4</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5" t="s">
+      <c r="O42" s="5"/>
+      <c r="P42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="3"/>
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -4584,16 +4464,16 @@
         <v>67</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>4</v>
@@ -4601,14 +4481,12 @@
       <c r="N43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R43" s="6"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="3"/>
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -4634,42 +4512,40 @@
         <v>98</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R44" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="3"/>
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
@@ -4687,42 +4563,40 @@
         <v>98</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="3"/>
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
@@ -4740,34 +4614,32 @@
         <v>98</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="3"/>
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4793,42 +4665,40 @@
         <v>98</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R47" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="3"/>
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
@@ -4846,42 +4716,40 @@
         <v>98</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="3"/>
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
@@ -4899,34 +4767,32 @@
         <v>98</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="3"/>
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4934,7 +4800,7 @@
         <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
@@ -4955,31 +4821,29 @@
         <v>68</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R50" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="3"/>
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4987,7 +4851,7 @@
         <v>93</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
@@ -5008,31 +4872,29 @@
         <v>69</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="3"/>
       <c r="T51" s="3"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -5040,7 +4902,7 @@
         <v>94</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
@@ -5061,31 +4923,29 @@
         <v>70</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="3"/>
       <c r="T52" s="3"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -5093,10 +4953,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -5114,7 +4974,7 @@
         <v>9</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>40</v>
@@ -5123,35 +4983,33 @@
         <v>7</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P53" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O53" s="5">
+        <v>1</v>
+      </c>
+      <c r="P53" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="3"/>
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -5166,10 +5024,10 @@
         <v>98</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>40</v>
@@ -5178,35 +5036,33 @@
         <v>7</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P54" s="5">
+        <v>192</v>
+      </c>
+      <c r="O54" s="5">
         <v>0</v>
       </c>
-      <c r="Q54" s="5" t="s">
+      <c r="P54" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="3"/>
       <c r="T54" s="3"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
@@ -5221,47 +5077,45 @@
         <v>98</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>442</v>
+        <v>4</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P55" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O55" s="5">
+        <v>1</v>
+      </c>
+      <c r="P55" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="3"/>
       <c r="T55" s="3"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -5276,47 +5130,45 @@
         <v>98</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>442</v>
+        <v>4</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P56" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O56" s="5">
+        <v>1</v>
+      </c>
+      <c r="P56" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="3"/>
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -5331,47 +5183,45 @@
         <v>98</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>442</v>
+        <v>4</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P57" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O57" s="5">
+        <v>1</v>
+      </c>
+      <c r="P57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="3"/>
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -5386,10 +5236,10 @@
         <v>98</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>40</v>
@@ -5398,32 +5248,30 @@
         <v>7</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P58" s="5">
+        <v>192</v>
+      </c>
+      <c r="O58" s="5">
         <v>0</v>
       </c>
-      <c r="Q58" s="5" t="s">
+      <c r="P58" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="3"/>
       <c r="T58" s="3"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>99</v>
@@ -5438,11 +5286,11 @@
         <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>37</v>
@@ -5451,24 +5299,22 @@
         <v>7</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P59" s="5">
+        <v>192</v>
+      </c>
+      <c r="O59" s="5">
         <v>0</v>
       </c>
-      <c r="Q59" s="5" t="s">
+      <c r="P59" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="3"/>
       <c r="T59" s="3"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -5497,41 +5343,39 @@
         <v>42</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P60" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O60" s="5">
+        <v>1</v>
+      </c>
+      <c r="P60" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="3"/>
       <c r="T60" s="3"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>99</v>
@@ -5549,10 +5393,10 @@
         <v>98</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>40</v>
@@ -5561,32 +5405,30 @@
         <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P61" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O61" s="5">
+        <v>1</v>
+      </c>
+      <c r="P61" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="3"/>
       <c r="T61" s="3"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>99</v>
@@ -5604,47 +5446,45 @@
         <v>98</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="5" t="s">
+      <c r="O62" s="5">
+        <v>1</v>
+      </c>
+      <c r="P62" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="3"/>
       <c r="T62" s="3"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -5662,7 +5502,7 @@
         <v>12</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>37</v>
@@ -5671,35 +5511,33 @@
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>442</v>
+        <v>4</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P63" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1</v>
+      </c>
+      <c r="P63" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="3"/>
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D64" s="4">
         <v>3</v>
@@ -5714,49 +5552,47 @@
         <v>98</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P64" s="5">
+        <v>192</v>
+      </c>
+      <c r="O64" s="5">
         <v>0</v>
       </c>
-      <c r="Q64" s="5" t="s">
+      <c r="P64" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R64" s="6" t="s">
-        <v>414</v>
-      </c>
+      <c r="Q64" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="R64" s="3"/>
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D65" s="4">
         <v>3</v>
@@ -5771,47 +5607,45 @@
         <v>98</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P65" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O65" s="5">
+        <v>1</v>
+      </c>
+      <c r="P65" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="3"/>
       <c r="T65" s="3"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D66" s="4">
         <v>3</v>
@@ -5826,47 +5660,45 @@
         <v>98</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P66" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O66" s="5">
+        <v>1</v>
+      </c>
+      <c r="P66" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="3"/>
       <c r="T66" s="3"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -5881,36 +5713,34 @@
         <v>98</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P67" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O67" s="5">
+        <v>1</v>
+      </c>
+      <c r="P67" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="3"/>
       <c r="T67" s="3"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -5921,7 +5751,7 @@
         <v>26</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -5936,36 +5766,34 @@
         <v>98</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P68" s="5">
+        <v>192</v>
+      </c>
+      <c r="O68" s="5">
         <v>0</v>
       </c>
-      <c r="Q68" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="R68" s="6"/>
+      <c r="P68" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="3"/>
       <c r="T68" s="3"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5976,7 +5804,7 @@
         <v>39</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -5994,7 +5822,7 @@
         <v>20</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>40</v>
@@ -6003,35 +5831,33 @@
         <v>7</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P69" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="R69" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="O69" s="5">
+        <v>1</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="3"/>
       <c r="T69" s="3"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -6046,10 +5872,10 @@
         <v>98</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>37</v>
@@ -6058,35 +5884,33 @@
         <v>7</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P70" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O70" s="5">
+        <v>1</v>
+      </c>
+      <c r="P70" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="3"/>
       <c r="T70" s="3"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -6104,7 +5928,7 @@
         <v>32</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>40</v>
@@ -6113,35 +5937,33 @@
         <v>7</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P71" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O71" s="5">
+        <v>1</v>
+      </c>
+      <c r="P71" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="3"/>
       <c r="T71" s="3"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D72" s="4">
         <v>3</v>
@@ -6156,47 +5978,45 @@
         <v>98</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="5" t="s">
+      <c r="O72" s="5">
+        <v>1</v>
+      </c>
+      <c r="P72" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="3"/>
       <c r="T72" s="3"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D73" s="4">
         <v>3</v>
@@ -6211,47 +6031,45 @@
         <v>98</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P73" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="5" t="s">
+      <c r="O73" s="5">
+        <v>1</v>
+      </c>
+      <c r="P73" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="3"/>
       <c r="T73" s="3"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D74" s="4">
         <v>3</v>
@@ -6266,47 +6084,45 @@
         <v>98</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P74" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="5" t="s">
+      <c r="O74" s="5">
+        <v>1</v>
+      </c>
+      <c r="P74" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="3"/>
       <c r="T74" s="3"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -6321,47 +6137,45 @@
         <v>98</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P75" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O75" s="5">
+        <v>1</v>
+      </c>
+      <c r="P75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="3"/>
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D76" s="4">
         <v>2</v>
@@ -6376,47 +6190,45 @@
         <v>98</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P76" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O76" s="5">
+        <v>1</v>
+      </c>
+      <c r="P76" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="3"/>
       <c r="T76" s="3"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -6431,47 +6243,45 @@
         <v>98</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P77" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O77" s="5">
+        <v>1</v>
+      </c>
+      <c r="P77" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="3"/>
       <c r="T77" s="3"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -6486,47 +6296,45 @@
         <v>98</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P78" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O78" s="5">
+        <v>1</v>
+      </c>
+      <c r="P78" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="3"/>
       <c r="T78" s="3"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -6541,10 +6349,10 @@
         <v>98</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>37</v>
@@ -6553,35 +6361,33 @@
         <v>7</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P79" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O79" s="5">
+        <v>1</v>
+      </c>
+      <c r="P79" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="3"/>
       <c r="T79" s="3"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -6596,47 +6402,45 @@
         <v>98</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P80" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O80" s="5">
+        <v>1</v>
+      </c>
+      <c r="P80" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="3"/>
       <c r="T80" s="3"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -6651,47 +6455,45 @@
         <v>98</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P81" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O81" s="5">
+        <v>1</v>
+      </c>
+      <c r="P81" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="3"/>
       <c r="T81" s="3"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -6706,47 +6508,45 @@
         <v>98</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P82" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O82" s="5">
+        <v>1</v>
+      </c>
+      <c r="P82" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="3"/>
       <c r="T82" s="3"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -6761,36 +6561,34 @@
         <v>98</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P83" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O83" s="5">
+        <v>1</v>
+      </c>
+      <c r="P83" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="3"/>
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -6801,7 +6599,7 @@
         <v>24</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D84" s="4">
         <v>2</v>
@@ -6819,33 +6617,31 @@
         <v>10</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P84" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O84" s="5">
+        <v>1</v>
+      </c>
+      <c r="P84" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="3"/>
       <c r="T84" s="3"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -6856,7 +6652,7 @@
         <v>38</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -6871,36 +6667,34 @@
         <v>98</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O85" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P85" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O85" s="5">
+        <v>1</v>
+      </c>
+      <c r="P85" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="3"/>
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -6911,7 +6705,7 @@
         <v>29</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -6929,7 +6723,7 @@
         <v>30</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>40</v>
@@ -6938,35 +6732,33 @@
         <v>7</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O86" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P86" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O86" s="5">
+        <v>1</v>
+      </c>
+      <c r="P86" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="3"/>
       <c r="T86" s="3"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -6981,10 +6773,10 @@
         <v>98</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>40</v>
@@ -6993,35 +6785,33 @@
         <v>7</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P87" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="R87" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="O87" s="5">
+        <v>1</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="3"/>
       <c r="T87" s="3"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -7036,10 +6826,10 @@
         <v>98</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>40</v>
@@ -7048,53 +6838,51 @@
         <v>7</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P88" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="R88" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="O88" s="5">
+        <v>1</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="3"/>
       <c r="T88" s="3"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>4</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="4">
-        <v>4</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="I89" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>40</v>
@@ -7103,24 +6891,22 @@
         <v>7</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P89" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="R89" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="O89" s="5">
+        <v>1</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="3"/>
       <c r="T89" s="3"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -7131,7 +6917,7 @@
         <v>25</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -7143,50 +6929,48 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P90" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O90" s="5">
+        <v>1</v>
+      </c>
+      <c r="P90" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="3"/>
       <c r="T90" s="3"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -7198,50 +6982,48 @@
         <v>2</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="5">
+        <v>1</v>
+      </c>
+      <c r="P91" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="3"/>
       <c r="T91" s="3"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
@@ -7256,36 +7038,34 @@
         <v>98</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P92" s="5">
+        <v>4</v>
+      </c>
+      <c r="O92" s="5">
         <v>0</v>
       </c>
-      <c r="Q92" s="5" t="s">
+      <c r="P92" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="3"/>
       <c r="T92" s="3"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -7296,7 +7076,7 @@
         <v>23</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D93" s="4">
         <v>2</v>
@@ -7308,50 +7088,48 @@
         <v>4</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P93" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O93" s="5">
+        <v>1</v>
+      </c>
+      <c r="P93" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="3"/>
       <c r="T93" s="3"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -7363,50 +7141,48 @@
         <v>5</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="5">
+        <v>1</v>
+      </c>
+      <c r="P94" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="3"/>
       <c r="T94" s="3"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -7418,49 +7194,49 @@
         <v>6</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P95" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O95" s="5">
+        <v>1</v>
+      </c>
+      <c r="P95" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="3"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D96" s="4">
         <v>2</v>
@@ -7475,38 +7251,38 @@
         <v>98</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P96" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O96" s="5">
+        <v>1</v>
+      </c>
+      <c r="P96" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R96" s="6"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q96" s="6"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="3"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>17</v>
       </c>
@@ -7514,7 +7290,7 @@
         <v>27</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -7526,49 +7302,49 @@
         <v>8</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P97" s="5">
+        <v>192</v>
+      </c>
+      <c r="O97" s="5">
         <v>0</v>
       </c>
-      <c r="Q97" s="5" t="s">
+      <c r="P97" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R97" s="6"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q97" s="6"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="3"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D98" s="4">
         <v>2</v>
@@ -7580,81 +7356,81 @@
         <v>9</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P98" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O98" s="5">
+        <v>1</v>
+      </c>
+      <c r="P98" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K98">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P94">
-    <cfRule type="expression" dxfId="26" priority="18">
+  <conditionalFormatting sqref="O94">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H98">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="5" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P98">
-    <cfRule type="expression" dxfId="24" priority="16">
+  <conditionalFormatting sqref="O2:O98">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q98">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+  <conditionalFormatting sqref="P2:P98">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"dfm.q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"dfm.m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7671,644 +7447,652 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="9">
+        <v>53</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="9">
+        <v>54</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="9">
+        <v>199</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="9">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="9">
+        <v>97</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="9">
+        <v>95</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="9">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="9">
+        <v>229</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="9">
+        <v>93</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9">
+        <v>50</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="9">
+        <v>192</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="9">
+        <v>212</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="9">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="9">
+        <v>187</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="9">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="9">
+        <v>92</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9">
+        <v>341</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="9">
+        <v>205</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="9">
+        <v>231</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="9">
+        <v>321</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="9">
+        <v>374</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="9">
+        <v>351</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="9">
+        <v>427</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="9">
+        <v>378</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B26" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="9">
+        <v>445</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="9">
+        <v>17</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="9">
+        <v>190</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>326</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15">
-        <v>187</v>
-      </c>
-      <c r="F15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B30" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B17" t="s">
-        <v>338</v>
-      </c>
-      <c r="C17" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C31" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18">
-        <v>341</v>
-      </c>
-      <c r="F18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>334</v>
-      </c>
-      <c r="B21" t="s">
-        <v>306</v>
-      </c>
-      <c r="C21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21">
-        <v>321</v>
-      </c>
-      <c r="F21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B22" t="s">
-        <v>307</v>
-      </c>
-      <c r="C22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22">
-        <v>374</v>
-      </c>
-      <c r="F22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" t="s">
-        <v>308</v>
-      </c>
-      <c r="C23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23">
-        <v>351</v>
-      </c>
-      <c r="F23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>331</v>
-      </c>
-      <c r="B24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>327</v>
-      </c>
-      <c r="B26" t="s">
-        <v>310</v>
-      </c>
-      <c r="C26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>328</v>
-      </c>
-      <c r="B27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>319</v>
-      </c>
-      <c r="B28" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>391</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D31" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B33" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>344</v>
-      </c>
-      <c r="B30" t="s">
-        <v>313</v>
-      </c>
-      <c r="C30" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" t="s">
-        <v>314</v>
-      </c>
-      <c r="C31" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32" t="s">
-        <v>346</v>
-      </c>
-      <c r="C32" t="s">
-        <v>347</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>386</v>
-      </c>
-      <c r="B33" t="s">
-        <v>388</v>
-      </c>
-      <c r="C33" t="s">
-        <v>389</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33">
-        <v>441</v>
+      <c r="D33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="8">
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>398</v>
-      </c>
-      <c r="B34" t="s">
-        <v>396</v>
-      </c>
-      <c r="C34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34">
-        <v>503</v>
+      <c r="A34" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>406</v>
-      </c>
-      <c r="B35" t="s">
-        <v>407</v>
-      </c>
-      <c r="C35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>452</v>
-      </c>
-      <c r="B36" t="s">
-        <v>453</v>
-      </c>
-      <c r="C36" t="s">
-        <v>454</v>
-      </c>
-      <c r="D36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36">
+      <c r="A35" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="8">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C632D-3453-492C-AD74-F30226319912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEE3BE4-FB20-4D92-8E5C-60FB5F33055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="454">
   <si>
     <t>gdp</t>
   </si>
@@ -1101,15 +1101,6 @@
   </si>
   <si>
     <t>bankre</t>
-  </si>
-  <si>
-    <t>bankdeposits</t>
-  </si>
-  <si>
-    <t>Bank Deposits</t>
-  </si>
-  <si>
-    <t>DPSACBW027SBOG</t>
   </si>
   <si>
     <t>bankci</t>
@@ -1920,10 +1911,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:Q98" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:Q98" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q98">
-    <sortCondition ref="C1:C98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:Q97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:Q97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q97">
+    <sortCondition ref="C1:C97"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="27"/>
@@ -2248,10 +2239,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="T60" sqref="T60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,10 +2276,10 @@
         <v>193</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>246</v>
@@ -2324,7 +2315,7 @@
         <v>245</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="R1" s="3"/>
       <c r="T1" s="3"/>
@@ -2337,7 +2328,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
@@ -2358,7 +2349,7 @@
         <v>336</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -2390,7 +2381,7 @@
         <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -2411,7 +2402,7 @@
         <v>336</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -2443,7 +2434,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2464,7 +2455,7 @@
         <v>336</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>7</v>
@@ -2496,7 +2487,7 @@
         <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2517,7 +2508,7 @@
         <v>336</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
@@ -2549,7 +2540,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2570,7 +2561,7 @@
         <v>336</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
@@ -2602,7 +2593,7 @@
         <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -2623,7 +2614,7 @@
         <v>336</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -2649,13 +2640,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -2670,13 +2661,13 @@
         <v>98</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>312</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>241</v>
@@ -2702,13 +2693,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2717,19 +2708,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>312</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>241</v>
@@ -2755,52 +2746,50 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>353</v>
+        <v>150</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>241</v>
+        <v>6</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
+      <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="3"/>
@@ -2808,13 +2797,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2823,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>337</v>
@@ -2859,13 +2848,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2874,13 +2863,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>337</v>
@@ -2910,13 +2899,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>455</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2925,19 +2914,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>6</v>
@@ -2946,14 +2935,14 @@
         <v>3</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="3"/>
@@ -2961,10 +2950,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -2973,22 +2962,22 @@
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>6</v>
@@ -3012,34 +3001,34 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>6</v>
@@ -3063,10 +3052,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
@@ -3075,22 +3064,22 @@
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>6</v>
@@ -3114,10 +3103,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>22</v>
@@ -3126,22 +3115,22 @@
         <v>2</v>
       </c>
       <c r="E17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>6</v>
@@ -3157,7 +3146,7 @@
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="3"/>
@@ -3165,10 +3154,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>22</v>
@@ -3180,19 +3169,19 @@
         <v>5</v>
       </c>
       <c r="F18" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>6</v>
@@ -3216,10 +3205,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -3231,19 +3220,19 @@
         <v>5</v>
       </c>
       <c r="F19" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>6</v>
@@ -3267,10 +3256,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
@@ -3282,19 +3271,19 @@
         <v>5</v>
       </c>
       <c r="F20" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>6</v>
@@ -3318,10 +3307,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>22</v>
@@ -3330,22 +3319,22 @@
         <v>2</v>
       </c>
       <c r="E21" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>6</v>
@@ -3361,7 +3350,7 @@
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="3"/>
@@ -3369,10 +3358,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -3381,22 +3370,22 @@
         <v>2</v>
       </c>
       <c r="E22" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>6</v>
@@ -3412,7 +3401,7 @@
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="3"/>
@@ -3420,10 +3409,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>22</v>
@@ -3435,19 +3424,19 @@
         <v>5</v>
       </c>
       <c r="F23" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>6</v>
@@ -3471,10 +3460,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
@@ -3486,19 +3475,19 @@
         <v>5</v>
       </c>
       <c r="F24" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>6</v>
@@ -3522,10 +3511,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -3537,19 +3526,19 @@
         <v>5</v>
       </c>
       <c r="F25" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>6</v>
@@ -3573,10 +3562,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -3585,22 +3574,22 @@
         <v>2</v>
       </c>
       <c r="E26" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>6</v>
@@ -3616,7 +3605,7 @@
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="3"/>
@@ -3624,10 +3613,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
@@ -3636,22 +3625,22 @@
         <v>2</v>
       </c>
       <c r="E27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>6</v>
@@ -3667,7 +3656,7 @@
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="3"/>
@@ -3675,10 +3664,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
@@ -3690,19 +3679,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>6</v>
@@ -3726,10 +3715,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
@@ -3741,19 +3730,19 @@
         <v>4</v>
       </c>
       <c r="F29" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>6</v>
@@ -3777,10 +3766,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
@@ -3792,19 +3781,19 @@
         <v>4</v>
       </c>
       <c r="F30" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>6</v>
@@ -3828,10 +3817,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
@@ -3843,19 +3832,19 @@
         <v>4</v>
       </c>
       <c r="F31" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>6</v>
@@ -3879,10 +3868,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>22</v>
@@ -3894,19 +3883,19 @@
         <v>4</v>
       </c>
       <c r="F32" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>6</v>
@@ -3930,10 +3919,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>22</v>
@@ -3945,19 +3934,19 @@
         <v>4</v>
       </c>
       <c r="F33" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>6</v>
@@ -3981,10 +3970,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
@@ -3996,19 +3985,19 @@
         <v>4</v>
       </c>
       <c r="F34" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>6</v>
@@ -4032,34 +4021,34 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
         <v>2</v>
       </c>
-      <c r="E35" s="4">
-        <v>4</v>
-      </c>
       <c r="F35" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>6</v>
@@ -4083,34 +4072,34 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>6</v>
@@ -4126,7 +4115,7 @@
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="3"/>
@@ -4134,10 +4123,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>22</v>
@@ -4146,22 +4135,22 @@
         <v>2</v>
       </c>
       <c r="E37" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>6</v>
@@ -4177,7 +4166,7 @@
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="3"/>
@@ -4185,10 +4174,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>22</v>
@@ -4200,19 +4189,19 @@
         <v>4</v>
       </c>
       <c r="F38" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>6</v>
@@ -4236,10 +4225,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
@@ -4251,19 +4240,19 @@
         <v>4</v>
       </c>
       <c r="F39" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>6</v>
@@ -4287,10 +4276,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
@@ -4299,22 +4288,22 @@
         <v>2</v>
       </c>
       <c r="E40" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>6</v>
@@ -4338,43 +4327,43 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="4">
         <v>3</v>
       </c>
       <c r="F41" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>3</v>
+        <v>358</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>4</v>
@@ -4389,40 +4378,40 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>4</v>
@@ -4432,7 +4421,7 @@
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="3"/>
@@ -4440,43 +4429,43 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
       </c>
       <c r="F43" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>4</v>
@@ -4491,34 +4480,34 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>6</v>
@@ -4534,7 +4523,7 @@
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="3"/>
@@ -4542,10 +4531,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
@@ -4557,19 +4546,19 @@
         <v>3</v>
       </c>
       <c r="F45" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>6</v>
@@ -4593,34 +4582,34 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
         <v>2</v>
       </c>
-      <c r="E46" s="4">
-        <v>3</v>
-      </c>
       <c r="F46" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>6</v>
@@ -4636,7 +4625,7 @@
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="3"/>
@@ -4644,34 +4633,34 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>6</v>
@@ -4687,7 +4676,7 @@
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="3"/>
@@ -4695,10 +4684,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
@@ -4710,19 +4699,19 @@
         <v>3</v>
       </c>
       <c r="F48" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>6</v>
@@ -4746,34 +4735,34 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
         <v>2</v>
       </c>
-      <c r="E49" s="4">
-        <v>3</v>
-      </c>
       <c r="F49" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>6</v>
@@ -4789,7 +4778,7 @@
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="3"/>
@@ -4797,34 +4786,34 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>6</v>
@@ -4840,7 +4829,7 @@
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="3"/>
@@ -4848,10 +4837,10 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
@@ -4863,19 +4852,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>6</v>
@@ -4899,37 +4888,37 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="D52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>3</v>
@@ -4938,11 +4927,13 @@
         <v>45</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="O52" s="5">
+        <v>1</v>
+      </c>
       <c r="P52" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="3"/>
@@ -4950,28 +4941,28 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>9</v>
+        <v>361</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>310</v>
@@ -4992,7 +4983,7 @@
         <v>192</v>
       </c>
       <c r="O53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>96</v>
@@ -5003,10 +4994,10 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>365</v>
+        <v>205</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>363</v>
+        <v>206</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>217</v>
@@ -5015,37 +5006,37 @@
         <v>2</v>
       </c>
       <c r="E54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>364</v>
+        <v>207</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>192</v>
       </c>
       <c r="O54" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>96</v>
@@ -5056,10 +5047,10 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>217</v>
@@ -5071,16 +5062,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>219</v>
@@ -5089,7 +5080,7 @@
         <v>7</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>4</v>
@@ -5109,10 +5100,10 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>217</v>
@@ -5124,16 +5115,16 @@
         <v>1</v>
       </c>
       <c r="F56" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>219</v>
@@ -5142,7 +5133,7 @@
         <v>7</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>4</v>
@@ -5162,10 +5153,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>223</v>
+        <v>387</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>217</v>
@@ -5177,25 +5168,25 @@
         <v>1</v>
       </c>
       <c r="F57" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>224</v>
+        <v>388</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>316</v>
+        <v>389</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>436</v>
+        <v>3</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>4</v>
@@ -5204,7 +5195,7 @@
         <v>192</v>
       </c>
       <c r="O57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>96</v>
@@ -5215,40 +5206,38 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="D58" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
       </c>
       <c r="F58" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>391</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>4</v>
@@ -5268,10 +5257,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>99</v>
@@ -5283,32 +5272,34 @@
         <v>1</v>
       </c>
       <c r="F59" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H59" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="I59" s="4" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>37</v>
+        <v>371</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>192</v>
       </c>
       <c r="O59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>96</v>
@@ -5319,10 +5310,10 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>99</v>
@@ -5334,28 +5325,28 @@
         <v>1</v>
       </c>
       <c r="F60" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>192</v>
@@ -5372,10 +5363,10 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>236</v>
+        <v>440</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>237</v>
+        <v>441</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>99</v>
@@ -5387,31 +5378,31 @@
         <v>1</v>
       </c>
       <c r="F61" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>238</v>
+        <v>442</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>324</v>
+        <v>443</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>40</v>
+        <v>446</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O61" s="5">
         <v>1</v>
@@ -5419,19 +5410,19 @@
       <c r="P61" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q61" s="6"/>
+      <c r="Q61" s="7"/>
       <c r="R61" s="3"/>
       <c r="T61" s="3"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>444</v>
+        <v>210</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>99</v>
+        <v>367</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -5440,31 +5431,31 @@
         <v>1</v>
       </c>
       <c r="F62" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>446</v>
+        <v>319</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>449</v>
+        <v>37</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O62" s="5">
         <v>1</v>
@@ -5472,46 +5463,46 @@
       <c r="P62" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q62" s="7"/>
+      <c r="Q62" s="6"/>
       <c r="R62" s="3"/>
       <c r="T62" s="3"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>450</v>
+        <v>208</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>319</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>436</v>
+        <v>3</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>4</v>
@@ -5520,24 +5511,26 @@
         <v>192</v>
       </c>
       <c r="O63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q63" s="6"/>
+      <c r="Q63" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="R63" s="3"/>
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>209</v>
+        <v>363</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D64" s="4">
         <v>3</v>
@@ -5546,16 +5539,16 @@
         <v>1</v>
       </c>
       <c r="F64" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>219</v>
@@ -5573,26 +5566,24 @@
         <v>192</v>
       </c>
       <c r="O64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q64" s="6" t="s">
-        <v>408</v>
-      </c>
+      <c r="Q64" s="6"/>
       <c r="R64" s="3"/>
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>226</v>
+        <v>391</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D65" s="4">
         <v>3</v>
@@ -5601,16 +5592,16 @@
         <v>1</v>
       </c>
       <c r="F65" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>227</v>
+        <v>393</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>219</v>
@@ -5619,7 +5610,7 @@
         <v>7</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>4</v>
@@ -5639,40 +5630,40 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D66" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
       </c>
       <c r="F66" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>219</v>
+        <v>404</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>4</v>
@@ -5692,13 +5683,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>404</v>
+        <v>16</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>405</v>
+        <v>26</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -5707,25 +5698,25 @@
         <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>4</v>
@@ -5734,10 +5725,10 @@
         <v>192</v>
       </c>
       <c r="O67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="3"/>
@@ -5745,13 +5736,13 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -5760,22 +5751,22 @@
         <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>4</v>
@@ -5787,7 +5778,7 @@
         <v>192</v>
       </c>
       <c r="O68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>192</v>
@@ -5798,13 +5789,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -5813,19 +5804,19 @@
         <v>1</v>
       </c>
       <c r="F69" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>7</v>
@@ -5843,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="3"/>
@@ -5851,13 +5842,13 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -5866,28 +5857,28 @@
         <v>1</v>
       </c>
       <c r="F70" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>192</v>
@@ -5904,34 +5895,34 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>149</v>
+        <v>426</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>32</v>
+        <v>424</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>311</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>7</v>
@@ -5940,10 +5931,10 @@
         <v>3</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O71" s="5">
         <v>1</v>
@@ -5951,19 +5942,19 @@
       <c r="P71" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q71" s="6"/>
+      <c r="Q71" s="7"/>
       <c r="R71" s="3"/>
       <c r="T71" s="3"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D72" s="4">
         <v>3</v>
@@ -5972,19 +5963,19 @@
         <v>2</v>
       </c>
       <c r="F72" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>311</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>7</v>
@@ -6016,7 +6007,7 @@
         <v>431</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D73" s="4">
         <v>3</v>
@@ -6025,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>98</v>
@@ -6037,7 +6028,7 @@
         <v>311</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>7</v>
@@ -6063,46 +6054,46 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>433</v>
+        <v>220</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>434</v>
+        <v>225</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D74" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>435</v>
+        <v>221</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O74" s="5">
         <v>1</v>
@@ -6110,19 +6101,19 @@
       <c r="P74" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q74" s="7"/>
+      <c r="Q74" s="6"/>
       <c r="R74" s="3"/>
       <c r="T74" s="3"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>220</v>
+        <v>434</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>225</v>
+        <v>435</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -6131,19 +6122,19 @@
         <v>1</v>
       </c>
       <c r="F75" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>221</v>
+        <v>436</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>330</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>7</v>
@@ -6169,40 +6160,40 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>437</v>
+        <v>212</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>438</v>
+        <v>213</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D76" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
       </c>
       <c r="F76" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>439</v>
+        <v>214</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>4</v>
@@ -6222,13 +6213,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>212</v>
+        <v>394</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>213</v>
+        <v>395</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -6237,25 +6228,25 @@
         <v>1</v>
       </c>
       <c r="F77" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>214</v>
+        <v>396</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>4</v>
@@ -6275,13 +6266,13 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -6290,19 +6281,19 @@
         <v>1</v>
       </c>
       <c r="F78" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>7</v>
@@ -6328,37 +6319,37 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>9</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="I79" s="4" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>4</v>
@@ -6387,31 +6378,31 @@
         <v>410</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="I80" s="4" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>4</v>
@@ -6434,13 +6425,13 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -6449,22 +6440,22 @@
         <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>4</v>
@@ -6487,13 +6478,13 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -6502,13 +6493,13 @@
         <v>1</v>
       </c>
       <c r="F82" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>325</v>
@@ -6540,40 +6531,40 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>423</v>
+        <v>24</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D83" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
       </c>
       <c r="F83" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>420</v>
+        <v>10</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>4</v>
@@ -6593,34 +6584,34 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" s="4">
         <v>2</v>
       </c>
-      <c r="E84" s="4">
-        <v>1</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1</v>
-      </c>
       <c r="G84" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>7</v>
@@ -6629,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>192</v>
@@ -6646,13 +6637,13 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -6661,28 +6652,28 @@
         <v>1</v>
       </c>
       <c r="F85" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>373</v>
+        <v>40</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>192</v>
@@ -6699,13 +6690,13 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -6714,16 +6705,16 @@
         <v>1</v>
       </c>
       <c r="F86" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>40</v>
@@ -6744,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q86" s="6"/>
       <c r="R86" s="3"/>
@@ -6752,13 +6743,13 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -6767,16 +6758,16 @@
         <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>40</v>
@@ -6805,13 +6796,13 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -6820,16 +6811,16 @@
         <v>1</v>
       </c>
       <c r="F88" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>40</v>
@@ -6858,13 +6849,13 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>453</v>
+        <v>368</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -6873,37 +6864,37 @@
         <v>1</v>
       </c>
       <c r="F89" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O89" s="5">
         <v>1</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="3"/>
@@ -6911,13 +6902,13 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -6926,13 +6917,13 @@
         <v>1</v>
       </c>
       <c r="F90" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>164</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>197</v>
+        <v>439</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>339</v>
@@ -6964,34 +6955,34 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>441</v>
+        <v>376</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
       </c>
       <c r="F91" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>235</v>
@@ -7006,7 +6997,7 @@
         <v>4</v>
       </c>
       <c r="O91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>96</v>
@@ -7017,13 +7008,13 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>378</v>
+        <v>14</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>379</v>
+        <v>23</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
@@ -7032,34 +7023,34 @@
         <v>1</v>
       </c>
       <c r="F92" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>456</v>
+        <v>198</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>381</v>
+        <v>40</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>235</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>96</v>
@@ -7070,13 +7061,13 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>23</v>
+        <v>352</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D93" s="4">
         <v>2</v>
@@ -7085,13 +7076,13 @@
         <v>1</v>
       </c>
       <c r="F93" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>164</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>339</v>
@@ -7103,13 +7094,13 @@
         <v>235</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O93" s="5">
         <v>1</v>
@@ -7123,13 +7114,13 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -7138,13 +7129,13 @@
         <v>1</v>
       </c>
       <c r="F94" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>164</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>339</v>
@@ -7172,17 +7163,18 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="3"/>
+      <c r="S94" s="4"/>
       <c r="T94" s="3"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>351</v>
+        <v>229</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -7191,31 +7183,31 @@
         <v>1</v>
       </c>
       <c r="F95" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>235</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O95" s="5">
         <v>1</v>
@@ -7230,34 +7222,34 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D96" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" s="4">
         <v>1</v>
       </c>
       <c r="F96" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>235</v>
@@ -7272,7 +7264,7 @@
         <v>192</v>
       </c>
       <c r="O96" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" s="5" t="s">
         <v>96</v>
@@ -7284,28 +7276,28 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>27</v>
+        <v>350</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D97" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
       </c>
       <c r="F97" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>164</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>339</v>
@@ -7317,16 +7309,16 @@
         <v>235</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>96</v>
@@ -7336,62 +7328,8 @@
       <c r="S97" s="4"/>
       <c r="T97" s="3"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D98" s="4">
-        <v>2</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1</v>
-      </c>
-      <c r="F98" s="4">
-        <v>9</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O98" s="5">
-        <v>1</v>
-      </c>
-      <c r="P98" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K98">
+  <conditionalFormatting sqref="K1:K97">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
@@ -7405,22 +7343,22 @@
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O94">
+  <conditionalFormatting sqref="O93">
     <cfRule type="expression" dxfId="6" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H98">
+  <conditionalFormatting sqref="H2:H97">
     <cfRule type="expression" dxfId="5" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O98">
+  <conditionalFormatting sqref="O2:O97">
     <cfRule type="expression" dxfId="4" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P98">
+  <conditionalFormatting sqref="P2:P97">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
@@ -7960,13 +7898,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>98</v>
@@ -8025,13 +7963,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>98</v>
@@ -8042,13 +7980,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>98</v>
@@ -8059,13 +7997,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>98</v>
@@ -8076,13 +8014,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>98</v>

--- a/modules/nowcast-model/nowcast-model-inputs.xlsx
+++ b/modules/nowcast-model/nowcast-model-inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEE3BE4-FB20-4D92-8E5C-60FB5F33055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A845A1C-656C-4250-B7D2-FC5B9CFA7C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="459">
   <si>
     <t>gdp</t>
   </si>
@@ -751,9 +751,6 @@
   </si>
   <si>
     <t>CPIAUCSL</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
   <si>
     <t>1-Year CPI Inflation</t>
@@ -1401,6 +1398,24 @@
   </si>
   <si>
     <t>CBBTCUSD</t>
+  </si>
+  <si>
+    <t>cpi0</t>
+  </si>
+  <si>
+    <t>pcepi0</t>
+  </si>
+  <si>
+    <t>1-Year PCEPI Inflation</t>
+  </si>
+  <si>
+    <t>BLS.PI</t>
+  </si>
+  <si>
+    <t>Import to calculate CPI</t>
+  </si>
+  <si>
+    <t>Import to calculate PCEPI</t>
   </si>
 </sst>
 </file>
@@ -1911,10 +1926,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:Q97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:Q97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q97">
-    <sortCondition ref="C1:C97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:Q98" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:Q98" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q98">
+    <sortCondition ref="C1:C98"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="27"/>
@@ -2239,10 +2254,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,13 +2291,13 @@
         <v>193</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>97</v>
@@ -2291,7 +2306,7 @@
         <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>36</v>
@@ -2309,13 +2324,13 @@
         <v>196</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R1" s="3"/>
       <c r="T1" s="3"/>
@@ -2328,7 +2343,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
@@ -2346,10 +2361,10 @@
         <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -2381,7 +2396,7 @@
         <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -2399,10 +2414,10 @@
         <v>138</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -2434,7 +2449,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2452,10 +2467,10 @@
         <v>148</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>7</v>
@@ -2487,7 +2502,7 @@
         <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2505,10 +2520,10 @@
         <v>147</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
@@ -2540,7 +2555,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2558,10 +2573,10 @@
         <v>139</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
@@ -2593,7 +2608,7 @@
         <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -2611,10 +2626,10 @@
         <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -2640,13 +2655,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -2661,22 +2676,22 @@
         <v>98</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>192</v>
@@ -2693,13 +2708,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2717,19 +2732,19 @@
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>192</v>
@@ -2752,7 +2767,7 @@
         <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2770,7 +2785,7 @@
         <v>156</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>37</v>
@@ -2803,7 +2818,7 @@
         <v>153</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2821,7 +2836,7 @@
         <v>157</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>37</v>
@@ -2854,7 +2869,7 @@
         <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2872,7 +2887,7 @@
         <v>158</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>37</v>
@@ -2923,10 +2938,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>6</v>
@@ -2953,7 +2968,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -2974,10 +2989,10 @@
         <v>50</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>6</v>
@@ -3025,10 +3040,10 @@
         <v>51</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>6</v>
@@ -3076,10 +3091,10 @@
         <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>6</v>
@@ -3127,10 +3142,10 @@
         <v>104</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>6</v>
@@ -3178,10 +3193,10 @@
         <v>105</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>6</v>
@@ -3229,10 +3244,10 @@
         <v>106</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>6</v>
@@ -3280,10 +3295,10 @@
         <v>107</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>6</v>
@@ -3331,10 +3346,10 @@
         <v>53</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>6</v>
@@ -3382,10 +3397,10 @@
         <v>54</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>6</v>
@@ -3433,10 +3448,10 @@
         <v>112</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>6</v>
@@ -3484,10 +3499,10 @@
         <v>113</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>6</v>
@@ -3535,10 +3550,10 @@
         <v>114</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>6</v>
@@ -3586,10 +3601,10 @@
         <v>55</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>6</v>
@@ -3637,10 +3652,10 @@
         <v>56</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>6</v>
@@ -3688,10 +3703,10 @@
         <v>57</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>6</v>
@@ -3739,10 +3754,10 @@
         <v>58</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>6</v>
@@ -3790,10 +3805,10 @@
         <v>59</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>6</v>
@@ -3841,10 +3856,10 @@
         <v>60</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>6</v>
@@ -3892,10 +3907,10 @@
         <v>61</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>6</v>
@@ -3943,10 +3958,10 @@
         <v>62</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>6</v>
@@ -3994,10 +4009,10 @@
         <v>63</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>6</v>
@@ -4045,10 +4060,10 @@
         <v>46</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>6</v>
@@ -4096,10 +4111,10 @@
         <v>64</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>6</v>
@@ -4147,10 +4162,10 @@
         <v>124</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>6</v>
@@ -4198,10 +4213,10 @@
         <v>125</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>6</v>
@@ -4249,10 +4264,10 @@
         <v>126</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>6</v>
@@ -4300,10 +4315,10 @@
         <v>65</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>6</v>
@@ -4351,16 +4366,16 @@
         <v>66</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>4</v>
@@ -4402,10 +4417,10 @@
         <v>67</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>6</v>
@@ -4453,10 +4468,10 @@
         <v>102</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>6</v>
@@ -4504,10 +4519,10 @@
         <v>131</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>6</v>
@@ -4555,10 +4570,10 @@
         <v>132</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>6</v>
@@ -4606,10 +4621,10 @@
         <v>101</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>6</v>
@@ -4657,10 +4672,10 @@
         <v>133</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>6</v>
@@ -4708,10 +4723,10 @@
         <v>134</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>6</v>
@@ -4759,10 +4774,10 @@
         <v>68</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>6</v>
@@ -4810,10 +4825,10 @@
         <v>69</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>6</v>
@@ -4861,10 +4876,10 @@
         <v>70</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>6</v>
@@ -4891,7 +4906,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>217</v>
@@ -4912,7 +4927,7 @@
         <v>9</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>40</v>
@@ -4941,10 +4956,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>217</v>
@@ -4962,10 +4977,10 @@
         <v>98</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>40</v>
@@ -5018,7 +5033,7 @@
         <v>207</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>219</v>
@@ -5027,7 +5042,7 @@
         <v>7</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>4</v>
@@ -5071,7 +5086,7 @@
         <v>218</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>219</v>
@@ -5080,7 +5095,7 @@
         <v>7</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>4</v>
@@ -5124,7 +5139,7 @@
         <v>224</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>219</v>
@@ -5133,7 +5148,7 @@
         <v>7</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>4</v>
@@ -5153,10 +5168,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>217</v>
@@ -5174,10 +5189,10 @@
         <v>98</v>
       </c>
       <c r="H57" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>40</v>
@@ -5206,10 +5221,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>240</v>
+        <v>455</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>99</v>
@@ -5228,7 +5243,7 @@
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>324</v>
+        <v>456</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>37</v>
@@ -5246,7 +5261,7 @@
         <v>192</v>
       </c>
       <c r="O58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>96</v>
@@ -5257,10 +5272,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>99</v>
@@ -5275,25 +5290,23 @@
         <v>2</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>192</v>
@@ -5310,16 +5323,16 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>236</v>
+        <v>454</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -5331,19 +5344,19 @@
         <v>98</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>4</v>
@@ -5352,27 +5365,29 @@
         <v>192</v>
       </c>
       <c r="O60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q60" s="6"/>
+      <c r="Q60" s="6" t="s">
+        <v>457</v>
+      </c>
       <c r="R60" s="3"/>
       <c r="T60" s="3"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>441</v>
+        <v>237</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
@@ -5384,45 +5399,47 @@
         <v>98</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>442</v>
+        <v>238</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>443</v>
+        <v>323</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>446</v>
+        <v>40</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q61" s="7"/>
+      <c r="Q61" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="R61" s="3"/>
       <c r="T61" s="3"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>210</v>
+        <v>440</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -5431,31 +5448,31 @@
         <v>1</v>
       </c>
       <c r="F62" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>319</v>
+        <v>442</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>433</v>
+        <v>3</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O62" s="5">
         <v>1</v>
@@ -5463,46 +5480,46 @@
       <c r="P62" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q62" s="6"/>
+      <c r="Q62" s="7"/>
       <c r="R62" s="3"/>
       <c r="T62" s="3"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>208</v>
+        <v>446</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D63" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>3</v>
+        <v>432</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>4</v>
@@ -5511,26 +5528,24 @@
         <v>192</v>
       </c>
       <c r="O63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q63" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="Q63" s="6"/>
       <c r="R63" s="3"/>
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>363</v>
+        <v>209</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D64" s="4">
         <v>3</v>
@@ -5539,16 +5554,16 @@
         <v>1</v>
       </c>
       <c r="F64" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>219</v>
@@ -5566,24 +5581,26 @@
         <v>192</v>
       </c>
       <c r="O64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q64" s="6"/>
+      <c r="Q64" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="R64" s="3"/>
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D65" s="4">
         <v>3</v>
@@ -5592,16 +5609,16 @@
         <v>1</v>
       </c>
       <c r="F65" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>219</v>
@@ -5610,7 +5627,7 @@
         <v>7</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>4</v>
@@ -5630,40 +5647,40 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
       </c>
       <c r="F66" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>404</v>
+        <v>219</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>4</v>
@@ -5683,13 +5700,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>26</v>
+        <v>401</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -5698,25 +5715,25 @@
         <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>40</v>
+        <v>403</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>4</v>
@@ -5725,10 +5742,10 @@
         <v>192</v>
       </c>
       <c r="O67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="3"/>
@@ -5736,13 +5753,13 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -5751,22 +5768,22 @@
         <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>4</v>
@@ -5778,7 +5795,7 @@
         <v>192</v>
       </c>
       <c r="O68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>192</v>
@@ -5789,13 +5806,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -5804,19 +5821,19 @@
         <v>1</v>
       </c>
       <c r="F69" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>7</v>
@@ -5834,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="3"/>
@@ -5842,13 +5859,13 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -5857,28 +5874,28 @@
         <v>1</v>
       </c>
       <c r="F70" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>192</v>
@@ -5895,34 +5912,34 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>426</v>
+        <v>149</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>423</v>
+        <v>31</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D71" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>7</v>
@@ -5931,10 +5948,10 @@
         <v>3</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O71" s="5">
         <v>1</v>
@@ -5942,19 +5959,19 @@
       <c r="P71" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q71" s="7"/>
+      <c r="Q71" s="6"/>
       <c r="R71" s="3"/>
       <c r="T71" s="3"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D72" s="4">
         <v>3</v>
@@ -5963,19 +5980,19 @@
         <v>2</v>
       </c>
       <c r="F72" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>7</v>
@@ -6001,13 +6018,13 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D73" s="4">
         <v>3</v>
@@ -6016,19 +6033,19 @@
         <v>2</v>
       </c>
       <c r="F73" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>7</v>
@@ -6054,46 +6071,46 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>220</v>
+        <v>429</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>225</v>
+        <v>430</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D74" s="4">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4">
         <v>2</v>
       </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
       <c r="F74" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>221</v>
+        <v>431</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O74" s="5">
         <v>1</v>
@@ -6101,19 +6118,19 @@
       <c r="P74" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q74" s="6"/>
+      <c r="Q74" s="7"/>
       <c r="R74" s="3"/>
       <c r="T74" s="3"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>434</v>
+        <v>220</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>435</v>
+        <v>225</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -6122,25 +6139,25 @@
         <v>1</v>
       </c>
       <c r="F75" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>436</v>
+        <v>221</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>4</v>
@@ -6160,40 +6177,40 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>433</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>213</v>
+        <v>434</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
       </c>
       <c r="F76" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>214</v>
+        <v>435</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>4</v>
@@ -6213,13 +6230,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>395</v>
+        <v>213</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -6228,25 +6245,25 @@
         <v>1</v>
       </c>
       <c r="F77" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>4</v>
@@ -6266,13 +6283,13 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -6281,19 +6298,19 @@
         <v>1</v>
       </c>
       <c r="F78" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>37</v>
+        <v>399</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>7</v>
@@ -6319,13 +6336,13 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -6334,22 +6351,22 @@
         <v>1</v>
       </c>
       <c r="F79" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>4</v>
@@ -6372,13 +6389,13 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -6387,22 +6404,22 @@
         <v>1</v>
       </c>
       <c r="F80" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>4</v>
@@ -6425,13 +6442,13 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -6440,22 +6457,22 @@
         <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>4</v>
@@ -6481,10 +6498,10 @@
         <v>421</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -6493,16 +6510,16 @@
         <v>1</v>
       </c>
       <c r="F82" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>40</v>
@@ -6531,40 +6548,40 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>420</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>24</v>
+        <v>419</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="D83" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
       </c>
       <c r="F83" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>10</v>
+        <v>416</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>4</v>
@@ -6584,34 +6601,34 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="4">
         <v>1</v>
       </c>
       <c r="F84" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>7</v>
@@ -6620,7 +6637,7 @@
         <v>3</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>192</v>
@@ -6637,10 +6654,10 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>450</v>
@@ -6652,28 +6669,28 @@
         <v>1</v>
       </c>
       <c r="F85" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>30</v>
+        <v>365</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>192</v>
@@ -6690,13 +6707,13 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>343</v>
+        <v>29</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -6705,13 +6722,13 @@
         <v>1</v>
       </c>
       <c r="F86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>342</v>
+        <v>30</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>328</v>
@@ -6735,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="Q86" s="6"/>
       <c r="R86" s="3"/>
@@ -6743,13 +6760,13 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -6758,16 +6775,16 @@
         <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>159</v>
+        <v>341</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>40</v>
@@ -6796,13 +6813,13 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -6811,16 +6828,16 @@
         <v>1</v>
       </c>
       <c r="F88" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>40</v>
@@ -6849,13 +6866,13 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>368</v>
+        <v>449</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -6864,37 +6881,37 @@
         <v>1</v>
       </c>
       <c r="F89" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O89" s="5">
         <v>1</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="3"/>
@@ -6902,13 +6919,13 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>437</v>
+        <v>13</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -6917,16 +6934,16 @@
         <v>1</v>
       </c>
       <c r="F90" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>164</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>40</v>
@@ -6938,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N90" s="4" t="s">
         <v>4</v>
@@ -6955,34 +6972,34 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
         <v>2</v>
       </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="F91" s="4">
-        <v>3</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>235</v>
@@ -6991,13 +7008,13 @@
         <v>3</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N91" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O91" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>96</v>
@@ -7008,13 +7025,13 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>374</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
@@ -7023,34 +7040,34 @@
         <v>1</v>
       </c>
       <c r="F92" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>198</v>
+        <v>452</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>235</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>96</v>
@@ -7061,13 +7078,13 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>352</v>
+        <v>23</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D93" s="4">
         <v>2</v>
@@ -7076,16 +7093,16 @@
         <v>1</v>
       </c>
       <c r="F93" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>164</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>40</v>
@@ -7094,13 +7111,13 @@
         <v>235</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O93" s="5">
         <v>1</v>
@@ -7114,13 +7131,13 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>351</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -7129,16 +7146,16 @@
         <v>1</v>
       </c>
       <c r="F94" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>164</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>40</v>
@@ -7150,7 +7167,7 @@
         <v>3</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N94" s="4" t="s">
         <v>4</v>
@@ -7163,18 +7180,17 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="3"/>
-      <c r="S94" s="4"/>
       <c r="T94" s="3"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>228</v>
+        <v>345</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
@@ -7183,31 +7199,31 @@
         <v>1</v>
       </c>
       <c r="F95" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>373</v>
+        <v>40</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>235</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="O95" s="5">
         <v>1</v>
@@ -7222,34 +7238,34 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D96" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="4">
         <v>1</v>
       </c>
       <c r="F96" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>385</v>
+        <v>230</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>235</v>
@@ -7264,7 +7280,7 @@
         <v>192</v>
       </c>
       <c r="O96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" s="5" t="s">
         <v>96</v>
@@ -7276,31 +7292,31 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D97" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
       </c>
       <c r="F97" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>164</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>40</v>
@@ -7309,16 +7325,16 @@
         <v>235</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="O97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>96</v>
@@ -7328,8 +7344,62 @@
       <c r="S97" s="4"/>
       <c r="T97" s="3"/>
     </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>9</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O98" s="5">
+        <v>1</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K97">
+  <conditionalFormatting sqref="K1:K98">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
@@ -7343,22 +7413,22 @@
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O93">
+  <conditionalFormatting sqref="O94">
     <cfRule type="expression" dxfId="6" priority="18">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H97">
+  <conditionalFormatting sqref="H2:H98">
     <cfRule type="expression" dxfId="5" priority="17">
       <formula>$G2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O97">
+  <conditionalFormatting sqref="O2:O98">
     <cfRule type="expression" dxfId="4" priority="16">
       <formula>AND($K2&lt;&gt;"d", $K2 &lt;&gt; "w", $K2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P97">
+  <conditionalFormatting sqref="P2:P98">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"none"</formula>
     </cfRule>
@@ -7404,33 +7474,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>252</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>98</v>
@@ -7442,13 +7512,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>98</v>
@@ -7460,13 +7530,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>98</v>
@@ -7478,13 +7548,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>98</v>
@@ -7496,13 +7566,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>98</v>
@@ -7514,13 +7584,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>98</v>
@@ -7532,13 +7602,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>98</v>
@@ -7550,13 +7620,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>98</v>
@@ -7568,13 +7638,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>98</v>
@@ -7586,13 +7656,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>98</v>
@@ -7604,13 +7674,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>98</v>
@@ -7622,13 +7692,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>98</v>
@@ -7640,13 +7710,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>98</v>
@@ -7658,7 +7728,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>26</v>
@@ -7671,18 +7741,18 @@
         <v>187</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>98</v>
@@ -7694,13 +7764,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>333</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>98</v>
@@ -7712,13 +7782,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>98</v>
@@ -7727,18 +7797,18 @@
         <v>341</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>98</v>
@@ -7750,13 +7820,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>98</v>
@@ -7768,13 +7838,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>98</v>
@@ -7783,18 +7853,18 @@
         <v>321</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>98</v>
@@ -7803,18 +7873,18 @@
         <v>374</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>98</v>
@@ -7823,15 +7893,15 @@
         <v>351</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
@@ -7844,13 +7914,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>98</v>
@@ -7862,13 +7932,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>98</v>
@@ -7880,13 +7950,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>98</v>
@@ -7898,13 +7968,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>98</v>
@@ -7914,13 +7984,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>98</v>
@@ -7932,13 +8002,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>98</v>
@@ -7949,13 +8019,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>164</v>
@@ -7963,13 +8033,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>98</v>
@@ -7980,13 +8050,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>98</v>
@@ -7997,13 +8067,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>98</v>
@@ -8014,13 +8084,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>98</v>
